--- a/data/raw_data/child_care/child_06.xlsx
+++ b/data/raw_data/child_care/child_06.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\staff\Documents\work_projects\indicators\i_income_insufficiency\data\raw_data\child_care\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\staff\Documents\work_projects\income-insufficiency\data\raw_data\child_care\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF8DF783-23C8-4F7A-BE01-9E08CF419624}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3996E8FE-BAB1-4EDA-8358-7874ADF7F953}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" xr2:uid="{0B7160AA-34C2-4F76-8CCB-959D0999A39C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t xml:space="preserve">Rockingham </t>
   </si>
@@ -172,6 +172,240 @@
   </si>
   <si>
     <t>school_Sfive</t>
+  </si>
+  <si>
+    <t>Alamance</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Alleghany</t>
+  </si>
+  <si>
+    <t>Anson</t>
+  </si>
+  <si>
+    <t>Ashe</t>
+  </si>
+  <si>
+    <t>Avery</t>
+  </si>
+  <si>
+    <t>Beaufort</t>
+  </si>
+  <si>
+    <t>Bertie</t>
+  </si>
+  <si>
+    <t>Bladen</t>
+  </si>
+  <si>
+    <t>Brunswick</t>
+  </si>
+  <si>
+    <t>Buncombe</t>
+  </si>
+  <si>
+    <t>Burke</t>
+  </si>
+  <si>
+    <t>Cabarrus</t>
+  </si>
+  <si>
+    <t>Caldwell</t>
+  </si>
+  <si>
+    <t>Camden</t>
+  </si>
+  <si>
+    <t>Carteret</t>
+  </si>
+  <si>
+    <t>Caswell</t>
+  </si>
+  <si>
+    <t>Catawba</t>
+  </si>
+  <si>
+    <t>Chatham</t>
+  </si>
+  <si>
+    <t>Cherokee</t>
+  </si>
+  <si>
+    <t>Chowan</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t>Craven</t>
+  </si>
+  <si>
+    <t>Cumberland</t>
+  </si>
+  <si>
+    <t>Currituck</t>
+  </si>
+  <si>
+    <t>Dare</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>Davie</t>
+  </si>
+  <si>
+    <t>Duplin</t>
+  </si>
+  <si>
+    <t>Durham</t>
+  </si>
+  <si>
+    <t>Edgecombe</t>
+  </si>
+  <si>
+    <t>Forsyth</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Gaston</t>
+  </si>
+  <si>
+    <t>Gates</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Granville</t>
+  </si>
+  <si>
+    <t>Greene</t>
+  </si>
+  <si>
+    <t>Guilford</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Harnett</t>
+  </si>
+  <si>
+    <t>Haywood</t>
+  </si>
+  <si>
+    <t>Henderson</t>
+  </si>
+  <si>
+    <t>Hertford</t>
+  </si>
+  <si>
+    <t>Hoke</t>
+  </si>
+  <si>
+    <t>Hyde</t>
+  </si>
+  <si>
+    <t>Iredell</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Johnston</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Lenoir</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Macon</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>McDowell</t>
+  </si>
+  <si>
+    <t>Mecklenburg</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>Montgomery</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>Nash</t>
+  </si>
+  <si>
+    <t>New Hanover</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Onslow</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Pamlico</t>
+  </si>
+  <si>
+    <t>Pasquotank</t>
+  </si>
+  <si>
+    <t>Pender</t>
+  </si>
+  <si>
+    <t>Perquimans</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Pitt</t>
+  </si>
+  <si>
+    <t>Polk</t>
+  </si>
+  <si>
+    <t>Randolph</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Robeson</t>
   </si>
 </sst>
 </file>
@@ -207,8 +441,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,13 +826,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882CA5B4-D0FB-402B-89B9-D7525910C68C}">
-  <dimension ref="A1:AA45"/>
+  <dimension ref="A1:AA101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="27" max="27" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -678,7 +916,7 @@
       <c r="Z1" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -761,7 +999,7 @@
       <c r="Z2">
         <v>394</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="1">
         <v>389</v>
       </c>
     </row>
@@ -844,7 +1082,7 @@
       <c r="Z3">
         <v>402</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="1">
         <v>402</v>
       </c>
     </row>
@@ -927,7 +1165,7 @@
       <c r="Z4">
         <v>394</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="1">
         <v>389</v>
       </c>
     </row>
@@ -1010,7 +1248,7 @@
       <c r="Z5">
         <v>394</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="1">
         <v>389</v>
       </c>
     </row>
@@ -1093,7 +1331,7 @@
       <c r="Z6">
         <v>394</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="1">
         <v>389</v>
       </c>
     </row>
@@ -1176,7 +1414,7 @@
       <c r="Z7">
         <v>402</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="1">
         <v>402</v>
       </c>
     </row>
@@ -1259,7 +1497,7 @@
       <c r="Z8">
         <v>402</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="1">
         <v>402</v>
       </c>
     </row>
@@ -1342,7 +1580,7 @@
       <c r="Z9">
         <v>394</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="1">
         <v>389</v>
       </c>
     </row>
@@ -1425,7 +1663,7 @@
       <c r="Z10">
         <v>402</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="1">
         <v>402</v>
       </c>
     </row>
@@ -1508,7 +1746,7 @@
       <c r="Z11">
         <v>394</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="1">
         <v>389</v>
       </c>
     </row>
@@ -1591,7 +1829,7 @@
       <c r="Z12">
         <v>394</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="1">
         <v>389</v>
       </c>
     </row>
@@ -1674,7 +1912,7 @@
       <c r="Z13">
         <v>446</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="1">
         <v>433</v>
       </c>
     </row>
@@ -1757,7 +1995,7 @@
       <c r="Z14">
         <v>402</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="1">
         <v>402</v>
       </c>
     </row>
@@ -1840,7 +2078,7 @@
       <c r="Z15">
         <v>553</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="1">
         <v>575</v>
       </c>
     </row>
@@ -1923,7 +2161,7 @@
       <c r="Z16">
         <v>394</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="1">
         <v>389</v>
       </c>
     </row>
@@ -2006,7 +2244,7 @@
       <c r="Z17">
         <v>394</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="1">
         <v>389</v>
       </c>
     </row>
@@ -2089,7 +2327,7 @@
       <c r="Z18">
         <v>402</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="1">
         <v>402</v>
       </c>
     </row>
@@ -2172,7 +2410,7 @@
       <c r="Z19">
         <v>394</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="1">
         <v>389</v>
       </c>
     </row>
@@ -2255,7 +2493,7 @@
       <c r="Z20">
         <v>402</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="1">
         <v>402</v>
       </c>
     </row>
@@ -2338,7 +2576,7 @@
       <c r="Z21">
         <v>394</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="1">
         <v>389</v>
       </c>
     </row>
@@ -2421,7 +2659,7 @@
       <c r="Z22">
         <v>394</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="1">
         <v>389</v>
       </c>
     </row>
@@ -2504,1837 +2742,6486 @@
       <c r="Z23">
         <v>394</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="1">
         <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B24">
         <v>2006</v>
       </c>
-      <c r="C24">
-        <v>379</v>
-      </c>
-      <c r="D24">
-        <v>379</v>
-      </c>
-      <c r="E24">
-        <v>356</v>
-      </c>
-      <c r="F24">
-        <v>335</v>
-      </c>
-      <c r="G24">
-        <v>335</v>
-      </c>
-      <c r="H24">
-        <v>398</v>
-      </c>
-      <c r="I24">
-        <v>398</v>
-      </c>
-      <c r="J24">
-        <v>374</v>
-      </c>
-      <c r="K24">
-        <v>351</v>
-      </c>
-      <c r="L24">
-        <v>351</v>
-      </c>
-      <c r="M24">
-        <v>417</v>
-      </c>
-      <c r="N24">
-        <v>417</v>
-      </c>
-      <c r="O24">
-        <v>392</v>
-      </c>
-      <c r="P24">
-        <v>368</v>
-      </c>
-      <c r="Q24">
-        <v>372</v>
-      </c>
-      <c r="R24">
-        <v>431</v>
-      </c>
-      <c r="S24">
+      <c r="C24" s="1">
+        <v>379</v>
+      </c>
+      <c r="D24" s="1">
+        <v>379</v>
+      </c>
+      <c r="E24" s="1">
+        <v>356</v>
+      </c>
+      <c r="F24" s="1">
+        <v>335</v>
+      </c>
+      <c r="G24" s="1">
+        <v>335</v>
+      </c>
+      <c r="H24" s="1">
+        <v>398</v>
+      </c>
+      <c r="I24" s="1">
+        <v>398</v>
+      </c>
+      <c r="J24" s="1">
+        <v>374</v>
+      </c>
+      <c r="K24" s="1">
+        <v>351</v>
+      </c>
+      <c r="L24" s="1">
+        <v>351</v>
+      </c>
+      <c r="M24" s="1">
+        <v>427</v>
+      </c>
+      <c r="N24" s="1">
+        <v>417</v>
+      </c>
+      <c r="O24" s="1">
+        <v>405</v>
+      </c>
+      <c r="P24" s="1">
+        <v>378</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>385</v>
+      </c>
+      <c r="R24" s="1">
+        <v>444</v>
+      </c>
+      <c r="S24" s="1">
         <v>426</v>
       </c>
-      <c r="T24">
-        <v>405</v>
-      </c>
-      <c r="U24">
-        <v>379</v>
-      </c>
-      <c r="V24">
-        <v>381</v>
-      </c>
-      <c r="W24">
-        <v>455</v>
-      </c>
-      <c r="X24">
-        <v>436</v>
-      </c>
-      <c r="Y24">
-        <v>423</v>
-      </c>
-      <c r="Z24">
-        <v>394</v>
-      </c>
-      <c r="AA24">
+      <c r="T24" s="1">
+        <v>418</v>
+      </c>
+      <c r="U24" s="1">
         <v>389</v>
+      </c>
+      <c r="V24" s="1">
+        <v>393</v>
+      </c>
+      <c r="W24" s="1">
+        <v>469</v>
+      </c>
+      <c r="X24" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B25">
         <v>2006</v>
       </c>
-      <c r="C25">
-        <v>379</v>
-      </c>
-      <c r="D25">
-        <v>379</v>
-      </c>
-      <c r="E25">
-        <v>356</v>
-      </c>
-      <c r="F25">
-        <v>335</v>
-      </c>
-      <c r="G25">
-        <v>335</v>
-      </c>
-      <c r="H25">
-        <v>398</v>
-      </c>
-      <c r="I25">
-        <v>398</v>
-      </c>
-      <c r="J25">
-        <v>374</v>
-      </c>
-      <c r="K25">
-        <v>351</v>
-      </c>
-      <c r="L25">
-        <v>351</v>
-      </c>
-      <c r="M25">
+      <c r="C25" s="1">
+        <v>379</v>
+      </c>
+      <c r="D25" s="1">
+        <v>379</v>
+      </c>
+      <c r="E25" s="1">
+        <v>356</v>
+      </c>
+      <c r="F25" s="1">
+        <v>335</v>
+      </c>
+      <c r="G25" s="1">
+        <v>335</v>
+      </c>
+      <c r="H25" s="1">
+        <v>398</v>
+      </c>
+      <c r="I25" s="1">
+        <v>398</v>
+      </c>
+      <c r="J25" s="1">
+        <v>374</v>
+      </c>
+      <c r="K25" s="1">
+        <v>351</v>
+      </c>
+      <c r="L25" s="1">
+        <v>351</v>
+      </c>
+      <c r="M25" s="1">
         <v>427</v>
       </c>
-      <c r="N25">
-        <v>417</v>
-      </c>
-      <c r="O25">
+      <c r="N25" s="1">
+        <v>417</v>
+      </c>
+      <c r="O25" s="1">
         <v>405</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="1">
         <v>378</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="1">
         <v>385</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="1">
         <v>444</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="1">
         <v>426</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="1">
         <v>418</v>
       </c>
-      <c r="U25">
-        <v>388</v>
-      </c>
-      <c r="V25">
+      <c r="U25" s="1">
+        <v>389</v>
+      </c>
+      <c r="V25" s="1">
         <v>393</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="1">
         <v>469</v>
       </c>
-      <c r="X25">
-        <v>436</v>
-      </c>
-      <c r="Y25">
-        <v>436</v>
-      </c>
-      <c r="Z25">
+      <c r="X25" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z25" s="1">
         <v>402</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="1">
         <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="B26">
         <v>2006</v>
       </c>
-      <c r="C26">
-        <v>379</v>
-      </c>
-      <c r="D26">
-        <v>379</v>
-      </c>
-      <c r="E26">
-        <v>356</v>
-      </c>
-      <c r="F26">
-        <v>335</v>
-      </c>
-      <c r="G26">
-        <v>335</v>
-      </c>
-      <c r="H26">
-        <v>398</v>
-      </c>
-      <c r="I26">
-        <v>398</v>
-      </c>
-      <c r="J26">
-        <v>374</v>
-      </c>
-      <c r="K26">
-        <v>351</v>
-      </c>
-      <c r="L26">
-        <v>351</v>
-      </c>
-      <c r="M26">
-        <v>417</v>
-      </c>
-      <c r="N26">
-        <v>417</v>
-      </c>
-      <c r="O26">
+      <c r="C26" s="1">
+        <v>379</v>
+      </c>
+      <c r="D26" s="1">
+        <v>379</v>
+      </c>
+      <c r="E26" s="1">
+        <v>356</v>
+      </c>
+      <c r="F26" s="1">
+        <v>335</v>
+      </c>
+      <c r="G26" s="1">
+        <v>335</v>
+      </c>
+      <c r="H26" s="1">
+        <v>398</v>
+      </c>
+      <c r="I26" s="1">
+        <v>398</v>
+      </c>
+      <c r="J26" s="1">
+        <v>374</v>
+      </c>
+      <c r="K26" s="1">
+        <v>351</v>
+      </c>
+      <c r="L26" s="1">
+        <v>351</v>
+      </c>
+      <c r="M26" s="1">
+        <v>417</v>
+      </c>
+      <c r="N26" s="1">
+        <v>417</v>
+      </c>
+      <c r="O26" s="1">
         <v>392</v>
       </c>
-      <c r="P26">
-        <v>368</v>
-      </c>
-      <c r="Q26">
-        <v>372</v>
-      </c>
-      <c r="R26">
+      <c r="P26" s="1">
+        <v>366</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>370</v>
+      </c>
+      <c r="R26" s="1">
         <v>431</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="1">
         <v>426</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="1">
         <v>405</v>
       </c>
-      <c r="U26">
-        <v>379</v>
-      </c>
-      <c r="V26">
+      <c r="U26" s="1">
+        <v>379</v>
+      </c>
+      <c r="V26" s="1">
         <v>381</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="1">
         <v>455</v>
       </c>
-      <c r="X26">
-        <v>436</v>
-      </c>
-      <c r="Y26">
+      <c r="X26" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y26" s="1">
         <v>423</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="1">
         <v>394</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="1">
         <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B27">
         <v>2006</v>
       </c>
-      <c r="C27">
-        <v>379</v>
-      </c>
-      <c r="D27">
-        <v>379</v>
-      </c>
-      <c r="E27">
-        <v>356</v>
-      </c>
-      <c r="F27">
-        <v>335</v>
-      </c>
-      <c r="G27">
-        <v>335</v>
-      </c>
-      <c r="H27">
-        <v>398</v>
-      </c>
-      <c r="I27">
-        <v>398</v>
-      </c>
-      <c r="J27">
-        <v>374</v>
-      </c>
-      <c r="K27">
-        <v>351</v>
-      </c>
-      <c r="L27">
-        <v>351</v>
-      </c>
-      <c r="M27">
-        <v>417</v>
-      </c>
-      <c r="N27">
-        <v>417</v>
-      </c>
-      <c r="O27">
+      <c r="C27" s="1">
+        <v>379</v>
+      </c>
+      <c r="D27" s="1">
+        <v>379</v>
+      </c>
+      <c r="E27" s="1">
+        <v>356</v>
+      </c>
+      <c r="F27" s="1">
+        <v>335</v>
+      </c>
+      <c r="G27" s="1">
+        <v>335</v>
+      </c>
+      <c r="H27" s="1">
+        <v>398</v>
+      </c>
+      <c r="I27" s="1">
+        <v>398</v>
+      </c>
+      <c r="J27" s="1">
+        <v>374</v>
+      </c>
+      <c r="K27" s="1">
+        <v>351</v>
+      </c>
+      <c r="L27" s="1">
+        <v>351</v>
+      </c>
+      <c r="M27" s="1">
+        <v>417</v>
+      </c>
+      <c r="N27" s="1">
+        <v>417</v>
+      </c>
+      <c r="O27" s="1">
         <v>392</v>
       </c>
-      <c r="P27">
-        <v>366</v>
-      </c>
-      <c r="Q27">
-        <v>370</v>
-      </c>
-      <c r="R27">
+      <c r="P27" s="1">
+        <v>369</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>373</v>
+      </c>
+      <c r="R27" s="1">
         <v>431</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="1">
         <v>426</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="1">
         <v>405</v>
       </c>
-      <c r="U27">
-        <v>379</v>
-      </c>
-      <c r="V27">
+      <c r="U27" s="1">
+        <v>380</v>
+      </c>
+      <c r="V27" s="1">
         <v>381</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="1">
         <v>455</v>
       </c>
-      <c r="X27">
-        <v>436</v>
-      </c>
-      <c r="Y27">
+      <c r="X27" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y27" s="1">
         <v>423</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="1">
         <v>394</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="1">
         <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B28">
         <v>2006</v>
       </c>
-      <c r="C28">
-        <v>379</v>
-      </c>
-      <c r="D28">
-        <v>379</v>
-      </c>
-      <c r="E28">
-        <v>356</v>
-      </c>
-      <c r="F28">
-        <v>335</v>
-      </c>
-      <c r="G28">
-        <v>335</v>
-      </c>
-      <c r="H28">
-        <v>398</v>
-      </c>
-      <c r="I28">
-        <v>398</v>
-      </c>
-      <c r="J28">
-        <v>374</v>
-      </c>
-      <c r="K28">
-        <v>351</v>
-      </c>
-      <c r="L28">
-        <v>351</v>
-      </c>
-      <c r="M28">
-        <v>417</v>
-      </c>
-      <c r="N28">
-        <v>417</v>
-      </c>
-      <c r="O28">
+      <c r="C28" s="1">
+        <v>379</v>
+      </c>
+      <c r="D28" s="1">
+        <v>379</v>
+      </c>
+      <c r="E28" s="1">
+        <v>356</v>
+      </c>
+      <c r="F28" s="1">
+        <v>335</v>
+      </c>
+      <c r="G28" s="1">
+        <v>335</v>
+      </c>
+      <c r="H28" s="1">
+        <v>398</v>
+      </c>
+      <c r="I28" s="1">
+        <v>398</v>
+      </c>
+      <c r="J28" s="1">
+        <v>374</v>
+      </c>
+      <c r="K28" s="1">
+        <v>351</v>
+      </c>
+      <c r="L28" s="1">
+        <v>351</v>
+      </c>
+      <c r="M28" s="1">
+        <v>417</v>
+      </c>
+      <c r="N28" s="1">
+        <v>417</v>
+      </c>
+      <c r="O28" s="1">
         <v>392</v>
       </c>
-      <c r="P28">
-        <v>369</v>
-      </c>
-      <c r="Q28">
-        <v>373</v>
-      </c>
-      <c r="R28">
+      <c r="P28" s="1">
+        <v>366</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>370</v>
+      </c>
+      <c r="R28" s="1">
         <v>431</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="1">
         <v>426</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="1">
         <v>405</v>
       </c>
-      <c r="U28">
-        <v>379</v>
-      </c>
-      <c r="V28">
+      <c r="U28" s="1">
+        <v>379</v>
+      </c>
+      <c r="V28" s="1">
         <v>381</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="1">
         <v>455</v>
       </c>
-      <c r="X28">
-        <v>436</v>
-      </c>
-      <c r="Y28">
+      <c r="X28" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y28" s="1">
         <v>423</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="1">
         <v>394</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="1">
         <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B29">
         <v>2006</v>
       </c>
-      <c r="C29">
-        <v>379</v>
-      </c>
-      <c r="D29">
-        <v>379</v>
-      </c>
-      <c r="E29">
-        <v>356</v>
-      </c>
-      <c r="F29">
-        <v>335</v>
-      </c>
-      <c r="G29">
-        <v>335</v>
-      </c>
-      <c r="H29">
-        <v>398</v>
-      </c>
-      <c r="I29">
-        <v>398</v>
-      </c>
-      <c r="J29">
-        <v>374</v>
-      </c>
-      <c r="K29">
-        <v>351</v>
-      </c>
-      <c r="L29">
-        <v>351</v>
-      </c>
-      <c r="M29">
-        <v>427</v>
-      </c>
-      <c r="N29">
-        <v>417</v>
-      </c>
-      <c r="O29">
+      <c r="C29" s="1">
+        <v>379</v>
+      </c>
+      <c r="D29" s="1">
+        <v>379</v>
+      </c>
+      <c r="E29" s="1">
+        <v>356</v>
+      </c>
+      <c r="F29" s="1">
+        <v>335</v>
+      </c>
+      <c r="G29" s="1">
+        <v>335</v>
+      </c>
+      <c r="H29" s="1">
+        <v>398</v>
+      </c>
+      <c r="I29" s="1">
+        <v>398</v>
+      </c>
+      <c r="J29" s="1">
+        <v>374</v>
+      </c>
+      <c r="K29" s="1">
+        <v>351</v>
+      </c>
+      <c r="L29" s="1">
+        <v>351</v>
+      </c>
+      <c r="M29" s="1">
+        <v>417</v>
+      </c>
+      <c r="N29" s="1">
+        <v>417</v>
+      </c>
+      <c r="O29" s="1">
+        <v>392</v>
+      </c>
+      <c r="P29" s="1">
+        <v>369</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>373</v>
+      </c>
+      <c r="R29" s="1">
+        <v>431</v>
+      </c>
+      <c r="S29" s="1">
+        <v>426</v>
+      </c>
+      <c r="T29" s="1">
         <v>405</v>
       </c>
-      <c r="P29">
-        <v>378</v>
-      </c>
-      <c r="Q29">
-        <v>385</v>
-      </c>
-      <c r="R29">
-        <v>444</v>
-      </c>
-      <c r="S29">
-        <v>426</v>
-      </c>
-      <c r="T29">
-        <v>418</v>
-      </c>
-      <c r="U29">
+      <c r="U29" s="1">
+        <v>379</v>
+      </c>
+      <c r="V29" s="1">
+        <v>381</v>
+      </c>
+      <c r="W29" s="1">
+        <v>455</v>
+      </c>
+      <c r="X29" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA29" s="1">
         <v>389</v>
-      </c>
-      <c r="V29">
-        <v>393</v>
-      </c>
-      <c r="W29">
-        <v>469</v>
-      </c>
-      <c r="X29">
-        <v>436</v>
-      </c>
-      <c r="Y29">
-        <v>436</v>
-      </c>
-      <c r="Z29">
-        <v>402</v>
-      </c>
-      <c r="AA29">
-        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B30">
         <v>2006</v>
       </c>
-      <c r="C30">
-        <v>379</v>
-      </c>
-      <c r="D30">
-        <v>379</v>
-      </c>
-      <c r="E30">
-        <v>356</v>
-      </c>
-      <c r="F30">
-        <v>335</v>
-      </c>
-      <c r="G30">
-        <v>335</v>
-      </c>
-      <c r="H30">
-        <v>398</v>
-      </c>
-      <c r="I30">
-        <v>398</v>
-      </c>
-      <c r="J30">
-        <v>374</v>
-      </c>
-      <c r="K30">
-        <v>351</v>
-      </c>
-      <c r="L30">
-        <v>351</v>
-      </c>
-      <c r="M30">
+      <c r="C30" s="1">
+        <v>379</v>
+      </c>
+      <c r="D30" s="1">
+        <v>379</v>
+      </c>
+      <c r="E30" s="1">
+        <v>356</v>
+      </c>
+      <c r="F30" s="1">
+        <v>335</v>
+      </c>
+      <c r="G30" s="1">
+        <v>335</v>
+      </c>
+      <c r="H30" s="1">
+        <v>398</v>
+      </c>
+      <c r="I30" s="1">
+        <v>398</v>
+      </c>
+      <c r="J30" s="1">
+        <v>374</v>
+      </c>
+      <c r="K30" s="1">
+        <v>351</v>
+      </c>
+      <c r="L30" s="1">
+        <v>351</v>
+      </c>
+      <c r="M30" s="1">
         <v>427</v>
       </c>
-      <c r="N30">
-        <v>417</v>
-      </c>
-      <c r="O30">
+      <c r="N30" s="1">
+        <v>417</v>
+      </c>
+      <c r="O30" s="1">
         <v>405</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="1">
         <v>378</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="1">
         <v>385</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="1">
         <v>444</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="1">
         <v>426</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="1">
         <v>418</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="1">
         <v>388</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="1">
         <v>393</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="1">
         <v>469</v>
       </c>
-      <c r="X30">
-        <v>436</v>
-      </c>
-      <c r="Y30">
-        <v>436</v>
-      </c>
-      <c r="Z30">
+      <c r="X30" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z30" s="1">
         <v>402</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" s="1">
         <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B31">
         <v>2006</v>
       </c>
-      <c r="C31">
-        <v>379</v>
-      </c>
-      <c r="D31">
-        <v>379</v>
-      </c>
-      <c r="E31">
-        <v>356</v>
-      </c>
-      <c r="F31">
-        <v>335</v>
-      </c>
-      <c r="G31">
-        <v>335</v>
-      </c>
-      <c r="H31">
-        <v>398</v>
-      </c>
-      <c r="I31">
-        <v>398</v>
-      </c>
-      <c r="J31">
-        <v>374</v>
-      </c>
-      <c r="K31">
-        <v>351</v>
-      </c>
-      <c r="L31">
-        <v>351</v>
-      </c>
-      <c r="M31">
-        <v>417</v>
-      </c>
-      <c r="N31">
-        <v>417</v>
-      </c>
-      <c r="O31">
+      <c r="C31" s="1">
+        <v>380</v>
+      </c>
+      <c r="D31" s="1">
+        <v>380</v>
+      </c>
+      <c r="E31" s="1">
+        <v>356</v>
+      </c>
+      <c r="F31" s="1">
+        <v>369</v>
+      </c>
+      <c r="G31" s="1">
+        <v>369</v>
+      </c>
+      <c r="H31" s="1">
+        <v>399</v>
+      </c>
+      <c r="I31" s="1">
+        <v>399</v>
+      </c>
+      <c r="J31" s="1">
+        <v>374</v>
+      </c>
+      <c r="K31" s="1">
+        <v>387</v>
+      </c>
+      <c r="L31" s="1">
+        <v>387</v>
+      </c>
+      <c r="M31" s="1">
+        <v>418</v>
+      </c>
+      <c r="N31" s="1">
+        <v>418</v>
+      </c>
+      <c r="O31" s="1">
         <v>392</v>
       </c>
-      <c r="P31">
-        <v>368</v>
-      </c>
-      <c r="Q31">
-        <v>372</v>
-      </c>
-      <c r="R31">
+      <c r="P31" s="1">
+        <v>406</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>406</v>
+      </c>
+      <c r="R31" s="1">
         <v>431</v>
       </c>
-      <c r="S31">
-        <v>426</v>
-      </c>
-      <c r="T31">
+      <c r="S31" s="1">
+        <v>427</v>
+      </c>
+      <c r="T31" s="1">
         <v>405</v>
       </c>
-      <c r="U31">
-        <v>379</v>
-      </c>
-      <c r="V31">
-        <v>381</v>
-      </c>
-      <c r="W31">
-        <v>455</v>
-      </c>
-      <c r="X31">
-        <v>436</v>
-      </c>
-      <c r="Y31">
+      <c r="U31" s="1">
+        <v>427</v>
+      </c>
+      <c r="V31" s="1">
+        <v>427</v>
+      </c>
+      <c r="W31" s="1">
+        <v>456</v>
+      </c>
+      <c r="X31" s="1">
+        <v>437</v>
+      </c>
+      <c r="Y31" s="1">
         <v>423</v>
       </c>
-      <c r="Z31">
-        <v>394</v>
-      </c>
-      <c r="AA31">
-        <v>389</v>
+      <c r="Z31" s="1">
+        <v>427</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>427</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B32">
         <v>2006</v>
       </c>
-      <c r="C32">
-        <v>379</v>
-      </c>
-      <c r="D32">
-        <v>379</v>
-      </c>
-      <c r="E32">
-        <v>356</v>
-      </c>
-      <c r="F32">
-        <v>335</v>
-      </c>
-      <c r="G32">
-        <v>335</v>
-      </c>
-      <c r="H32">
-        <v>398</v>
-      </c>
-      <c r="I32">
-        <v>398</v>
-      </c>
-      <c r="J32">
-        <v>374</v>
-      </c>
-      <c r="K32">
-        <v>351</v>
-      </c>
-      <c r="L32">
-        <v>351</v>
-      </c>
-      <c r="M32">
+      <c r="C32" s="1">
+        <v>379</v>
+      </c>
+      <c r="D32" s="1">
+        <v>379</v>
+      </c>
+      <c r="E32" s="1">
+        <v>356</v>
+      </c>
+      <c r="F32" s="1">
+        <v>335</v>
+      </c>
+      <c r="G32" s="1">
+        <v>335</v>
+      </c>
+      <c r="H32" s="1">
+        <v>398</v>
+      </c>
+      <c r="I32" s="1">
+        <v>398</v>
+      </c>
+      <c r="J32" s="1">
+        <v>374</v>
+      </c>
+      <c r="K32" s="1">
+        <v>351</v>
+      </c>
+      <c r="L32" s="1">
+        <v>351</v>
+      </c>
+      <c r="M32" s="1">
         <v>427</v>
       </c>
-      <c r="N32">
-        <v>417</v>
-      </c>
-      <c r="O32">
+      <c r="N32" s="1">
+        <v>417</v>
+      </c>
+      <c r="O32" s="1">
         <v>405</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="1">
         <v>378</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="1">
         <v>385</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="1">
         <v>444</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="1">
         <v>426</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="1">
         <v>418</v>
       </c>
-      <c r="U32">
-        <v>389</v>
-      </c>
-      <c r="V32">
+      <c r="U32" s="1">
+        <v>388</v>
+      </c>
+      <c r="V32" s="1">
         <v>393</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="1">
         <v>469</v>
       </c>
-      <c r="X32">
-        <v>436</v>
-      </c>
-      <c r="Y32">
-        <v>436</v>
-      </c>
-      <c r="Z32">
+      <c r="X32" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z32" s="1">
         <v>402</v>
       </c>
-      <c r="AA32">
+      <c r="AA32" s="1">
         <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B33">
         <v>2006</v>
       </c>
-      <c r="C33">
-        <v>379</v>
-      </c>
-      <c r="D33">
-        <v>379</v>
-      </c>
-      <c r="E33">
-        <v>356</v>
-      </c>
-      <c r="F33">
-        <v>335</v>
-      </c>
-      <c r="G33">
-        <v>335</v>
-      </c>
-      <c r="H33">
-        <v>398</v>
-      </c>
-      <c r="I33">
-        <v>398</v>
-      </c>
-      <c r="J33">
-        <v>374</v>
-      </c>
-      <c r="K33">
-        <v>351</v>
-      </c>
-      <c r="L33">
-        <v>351</v>
-      </c>
-      <c r="M33">
-        <v>417</v>
-      </c>
-      <c r="N33">
-        <v>417</v>
-      </c>
-      <c r="O33">
-        <v>392</v>
-      </c>
-      <c r="P33">
-        <v>369</v>
-      </c>
-      <c r="Q33">
-        <v>373</v>
-      </c>
-      <c r="R33">
-        <v>431</v>
-      </c>
-      <c r="S33">
+      <c r="C33" s="1">
+        <v>379</v>
+      </c>
+      <c r="D33" s="1">
+        <v>379</v>
+      </c>
+      <c r="E33" s="1">
+        <v>356</v>
+      </c>
+      <c r="F33" s="1">
+        <v>335</v>
+      </c>
+      <c r="G33" s="1">
+        <v>335</v>
+      </c>
+      <c r="H33" s="1">
+        <v>398</v>
+      </c>
+      <c r="I33" s="1">
+        <v>398</v>
+      </c>
+      <c r="J33" s="1">
+        <v>374</v>
+      </c>
+      <c r="K33" s="1">
+        <v>351</v>
+      </c>
+      <c r="L33" s="1">
+        <v>351</v>
+      </c>
+      <c r="M33" s="1">
+        <v>427</v>
+      </c>
+      <c r="N33" s="1">
+        <v>417</v>
+      </c>
+      <c r="O33" s="1">
+        <v>405</v>
+      </c>
+      <c r="P33" s="1">
+        <v>378</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>385</v>
+      </c>
+      <c r="R33" s="1">
+        <v>444</v>
+      </c>
+      <c r="S33" s="1">
         <v>426</v>
       </c>
-      <c r="T33">
-        <v>405</v>
-      </c>
-      <c r="U33">
-        <v>380</v>
-      </c>
-      <c r="V33">
-        <v>381</v>
-      </c>
-      <c r="W33">
-        <v>455</v>
-      </c>
-      <c r="X33">
-        <v>436</v>
-      </c>
-      <c r="Y33">
-        <v>423</v>
-      </c>
-      <c r="Z33">
-        <v>394</v>
-      </c>
-      <c r="AA33">
+      <c r="T33" s="1">
+        <v>418</v>
+      </c>
+      <c r="U33" s="1">
         <v>389</v>
+      </c>
+      <c r="V33" s="1">
+        <v>393</v>
+      </c>
+      <c r="W33" s="1">
+        <v>469</v>
+      </c>
+      <c r="X33" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B34">
         <v>2006</v>
       </c>
-      <c r="C34">
-        <v>379</v>
-      </c>
-      <c r="D34">
-        <v>379</v>
-      </c>
-      <c r="E34">
-        <v>356</v>
-      </c>
-      <c r="F34">
-        <v>335</v>
-      </c>
-      <c r="G34">
-        <v>335</v>
-      </c>
-      <c r="H34">
-        <v>398</v>
-      </c>
-      <c r="I34">
-        <v>398</v>
-      </c>
-      <c r="J34">
-        <v>374</v>
-      </c>
-      <c r="K34">
-        <v>351</v>
-      </c>
-      <c r="L34">
-        <v>351</v>
-      </c>
-      <c r="M34">
-        <v>417</v>
-      </c>
-      <c r="N34">
-        <v>417</v>
-      </c>
-      <c r="O34">
-        <v>392</v>
-      </c>
-      <c r="P34">
-        <v>366</v>
-      </c>
-      <c r="Q34">
-        <v>370</v>
-      </c>
-      <c r="R34">
-        <v>431</v>
-      </c>
-      <c r="S34">
+      <c r="C34" s="1">
+        <v>379</v>
+      </c>
+      <c r="D34" s="1">
+        <v>379</v>
+      </c>
+      <c r="E34" s="1">
+        <v>356</v>
+      </c>
+      <c r="F34" s="1">
+        <v>335</v>
+      </c>
+      <c r="G34" s="1">
+        <v>335</v>
+      </c>
+      <c r="H34" s="1">
+        <v>398</v>
+      </c>
+      <c r="I34" s="1">
+        <v>398</v>
+      </c>
+      <c r="J34" s="1">
+        <v>374</v>
+      </c>
+      <c r="K34" s="1">
+        <v>351</v>
+      </c>
+      <c r="L34" s="1">
+        <v>351</v>
+      </c>
+      <c r="M34" s="1">
+        <v>427</v>
+      </c>
+      <c r="N34" s="1">
+        <v>417</v>
+      </c>
+      <c r="O34" s="1">
+        <v>405</v>
+      </c>
+      <c r="P34" s="1">
+        <v>378</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>385</v>
+      </c>
+      <c r="R34" s="1">
+        <v>444</v>
+      </c>
+      <c r="S34" s="1">
         <v>426</v>
       </c>
-      <c r="T34">
-        <v>405</v>
-      </c>
-      <c r="U34">
-        <v>379</v>
-      </c>
-      <c r="V34">
-        <v>381</v>
-      </c>
-      <c r="W34">
-        <v>455</v>
-      </c>
-      <c r="X34">
-        <v>436</v>
-      </c>
-      <c r="Y34">
-        <v>423</v>
-      </c>
-      <c r="Z34">
-        <v>394</v>
-      </c>
-      <c r="AA34">
+      <c r="T34" s="1">
+        <v>418</v>
+      </c>
+      <c r="U34" s="1">
         <v>389</v>
+      </c>
+      <c r="V34" s="1">
+        <v>393</v>
+      </c>
+      <c r="W34" s="1">
+        <v>469</v>
+      </c>
+      <c r="X34" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B35">
         <v>2006</v>
       </c>
-      <c r="C35">
-        <v>402</v>
-      </c>
-      <c r="D35">
-        <v>402</v>
-      </c>
-      <c r="E35">
-        <v>446</v>
-      </c>
-      <c r="F35">
-        <v>348</v>
-      </c>
-      <c r="G35">
-        <v>348</v>
-      </c>
-      <c r="H35">
-        <v>421</v>
-      </c>
-      <c r="I35">
-        <v>421</v>
-      </c>
-      <c r="J35">
+      <c r="C35" s="1">
+        <v>379</v>
+      </c>
+      <c r="D35" s="1">
+        <v>379</v>
+      </c>
+      <c r="E35" s="1">
+        <v>356</v>
+      </c>
+      <c r="F35" s="1">
+        <v>335</v>
+      </c>
+      <c r="G35" s="1">
+        <v>335</v>
+      </c>
+      <c r="H35" s="1">
+        <v>398</v>
+      </c>
+      <c r="I35" s="1">
+        <v>398</v>
+      </c>
+      <c r="J35" s="1">
+        <v>374</v>
+      </c>
+      <c r="K35" s="1">
+        <v>351</v>
+      </c>
+      <c r="L35" s="1">
+        <v>351</v>
+      </c>
+      <c r="M35" s="1">
+        <v>417</v>
+      </c>
+      <c r="N35" s="1">
+        <v>417</v>
+      </c>
+      <c r="O35" s="1">
+        <v>392</v>
+      </c>
+      <c r="P35" s="1">
+        <v>369</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>373</v>
+      </c>
+      <c r="R35" s="1">
+        <v>431</v>
+      </c>
+      <c r="S35" s="1">
+        <v>426</v>
+      </c>
+      <c r="T35" s="1">
+        <v>405</v>
+      </c>
+      <c r="U35" s="1">
+        <v>380</v>
+      </c>
+      <c r="V35" s="1">
+        <v>381</v>
+      </c>
+      <c r="W35" s="1">
         <v>455</v>
       </c>
-      <c r="K35">
-        <v>359</v>
-      </c>
-      <c r="L35">
-        <v>359</v>
-      </c>
-      <c r="M35">
-        <v>491</v>
-      </c>
-      <c r="N35">
-        <v>513</v>
-      </c>
-      <c r="O35">
-        <v>513</v>
-      </c>
-      <c r="P35">
-        <v>419</v>
-      </c>
-      <c r="Q35">
-        <v>415</v>
-      </c>
-      <c r="R35">
-        <v>509</v>
-      </c>
-      <c r="S35">
-        <v>529</v>
-      </c>
-      <c r="T35">
-        <v>529</v>
-      </c>
-      <c r="U35">
-        <v>430</v>
-      </c>
-      <c r="V35">
+      <c r="X35" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y35" s="1">
         <v>423</v>
       </c>
-      <c r="W35">
-        <v>533</v>
-      </c>
-      <c r="X35">
-        <v>540</v>
-      </c>
-      <c r="Y35">
-        <v>540</v>
-      </c>
-      <c r="Z35">
-        <v>446</v>
-      </c>
-      <c r="AA35">
-        <v>433</v>
+      <c r="Z35" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B36">
         <v>2006</v>
       </c>
-      <c r="C36">
-        <v>379</v>
-      </c>
-      <c r="D36">
-        <v>379</v>
-      </c>
-      <c r="E36">
-        <v>356</v>
-      </c>
-      <c r="F36">
-        <v>335</v>
-      </c>
-      <c r="G36">
-        <v>335</v>
-      </c>
-      <c r="H36">
-        <v>398</v>
-      </c>
-      <c r="I36">
-        <v>398</v>
-      </c>
-      <c r="J36">
-        <v>374</v>
-      </c>
-      <c r="K36">
-        <v>351</v>
-      </c>
-      <c r="L36">
-        <v>351</v>
-      </c>
-      <c r="M36">
-        <v>427</v>
-      </c>
-      <c r="N36">
-        <v>417</v>
-      </c>
-      <c r="O36">
+      <c r="C36" s="1">
+        <v>446</v>
+      </c>
+      <c r="D36" s="1">
+        <v>446</v>
+      </c>
+      <c r="E36" s="1">
+        <v>356</v>
+      </c>
+      <c r="F36" s="1">
+        <v>379</v>
+      </c>
+      <c r="G36" s="1">
+        <v>379</v>
+      </c>
+      <c r="H36" s="1">
+        <v>469</v>
+      </c>
+      <c r="I36" s="1">
+        <v>469</v>
+      </c>
+      <c r="J36" s="1">
+        <v>374</v>
+      </c>
+      <c r="K36" s="1">
+        <v>398</v>
+      </c>
+      <c r="L36" s="1">
+        <v>398</v>
+      </c>
+      <c r="M36" s="1">
+        <v>490</v>
+      </c>
+      <c r="N36" s="1">
+        <v>490</v>
+      </c>
+      <c r="O36" s="1">
         <v>405</v>
       </c>
-      <c r="P36">
-        <v>378</v>
-      </c>
-      <c r="Q36">
-        <v>385</v>
-      </c>
-      <c r="R36">
-        <v>444</v>
-      </c>
-      <c r="S36">
-        <v>426</v>
-      </c>
-      <c r="T36">
+      <c r="P36" s="1">
+        <v>417</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>424</v>
+      </c>
+      <c r="R36" s="1">
+        <v>505</v>
+      </c>
+      <c r="S36" s="1">
+        <v>502</v>
+      </c>
+      <c r="T36" s="1">
         <v>418</v>
       </c>
-      <c r="U36">
-        <v>388</v>
-      </c>
-      <c r="V36">
-        <v>393</v>
-      </c>
-      <c r="W36">
-        <v>469</v>
-      </c>
-      <c r="X36">
-        <v>436</v>
-      </c>
-      <c r="Y36">
-        <v>436</v>
-      </c>
-      <c r="Z36">
-        <v>402</v>
-      </c>
-      <c r="AA36">
-        <v>402</v>
+      <c r="U36" s="1">
+        <v>428</v>
+      </c>
+      <c r="V36" s="1">
+        <v>433</v>
+      </c>
+      <c r="W36" s="1">
+        <v>531</v>
+      </c>
+      <c r="X36" s="1">
+        <v>513</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>443</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B37">
         <v>2006</v>
       </c>
-      <c r="C37">
-        <v>536</v>
-      </c>
-      <c r="D37">
-        <v>536</v>
-      </c>
-      <c r="E37">
-        <v>474</v>
-      </c>
-      <c r="F37">
-        <v>446</v>
-      </c>
-      <c r="G37">
-        <v>446</v>
-      </c>
-      <c r="H37">
-        <v>562</v>
-      </c>
-      <c r="I37">
-        <v>562</v>
-      </c>
-      <c r="J37">
-        <v>497</v>
-      </c>
-      <c r="K37">
+      <c r="C37" s="1">
+        <v>379</v>
+      </c>
+      <c r="D37" s="1">
+        <v>379</v>
+      </c>
+      <c r="E37" s="1">
+        <v>356</v>
+      </c>
+      <c r="F37" s="1">
+        <v>335</v>
+      </c>
+      <c r="G37" s="1">
+        <v>335</v>
+      </c>
+      <c r="H37" s="1">
+        <v>398</v>
+      </c>
+      <c r="I37" s="1">
+        <v>398</v>
+      </c>
+      <c r="J37" s="1">
+        <v>374</v>
+      </c>
+      <c r="K37" s="1">
+        <v>351</v>
+      </c>
+      <c r="L37" s="1">
+        <v>351</v>
+      </c>
+      <c r="M37" s="1">
+        <v>427</v>
+      </c>
+      <c r="N37" s="1">
+        <v>417</v>
+      </c>
+      <c r="O37" s="1">
+        <v>405</v>
+      </c>
+      <c r="P37" s="1">
+        <v>378</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>385</v>
+      </c>
+      <c r="R37" s="1">
+        <v>444</v>
+      </c>
+      <c r="S37" s="1">
+        <v>426</v>
+      </c>
+      <c r="T37" s="1">
+        <v>418</v>
+      </c>
+      <c r="U37" s="1">
+        <v>389</v>
+      </c>
+      <c r="V37" s="1">
+        <v>393</v>
+      </c>
+      <c r="W37" s="1">
         <v>469</v>
       </c>
-      <c r="L37">
-        <v>469</v>
-      </c>
-      <c r="M37">
-        <v>630</v>
-      </c>
-      <c r="N37">
-        <v>589</v>
-      </c>
-      <c r="O37">
-        <v>575</v>
-      </c>
-      <c r="P37">
-        <v>521</v>
-      </c>
-      <c r="Q37">
-        <v>550</v>
-      </c>
-      <c r="R37">
-        <v>653</v>
-      </c>
-      <c r="S37">
-        <v>603</v>
-      </c>
-      <c r="T37">
-        <v>593</v>
-      </c>
-      <c r="U37">
-        <v>536</v>
-      </c>
-      <c r="V37">
-        <v>563</v>
-      </c>
-      <c r="W37">
-        <v>682</v>
-      </c>
-      <c r="X37">
-        <v>616</v>
-      </c>
-      <c r="Y37">
-        <v>615</v>
-      </c>
-      <c r="Z37">
-        <v>553</v>
-      </c>
-      <c r="AA37">
-        <v>575</v>
+      <c r="X37" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B38">
         <v>2006</v>
       </c>
-      <c r="C38">
-        <v>379</v>
-      </c>
-      <c r="D38">
-        <v>379</v>
-      </c>
-      <c r="E38">
-        <v>356</v>
-      </c>
-      <c r="F38">
-        <v>335</v>
-      </c>
-      <c r="G38">
-        <v>335</v>
-      </c>
-      <c r="H38">
-        <v>398</v>
-      </c>
-      <c r="I38">
-        <v>398</v>
-      </c>
-      <c r="J38">
-        <v>374</v>
-      </c>
-      <c r="K38">
-        <v>351</v>
-      </c>
-      <c r="L38">
-        <v>351</v>
-      </c>
-      <c r="M38">
-        <v>417</v>
-      </c>
-      <c r="N38">
-        <v>417</v>
-      </c>
-      <c r="O38">
+      <c r="C38" s="1">
+        <v>379</v>
+      </c>
+      <c r="D38" s="1">
+        <v>379</v>
+      </c>
+      <c r="E38" s="1">
+        <v>356</v>
+      </c>
+      <c r="F38" s="1">
+        <v>335</v>
+      </c>
+      <c r="G38" s="1">
+        <v>335</v>
+      </c>
+      <c r="H38" s="1">
+        <v>398</v>
+      </c>
+      <c r="I38" s="1">
+        <v>398</v>
+      </c>
+      <c r="J38" s="1">
+        <v>374</v>
+      </c>
+      <c r="K38" s="1">
+        <v>351</v>
+      </c>
+      <c r="L38" s="1">
+        <v>351</v>
+      </c>
+      <c r="M38" s="1">
+        <v>417</v>
+      </c>
+      <c r="N38" s="1">
+        <v>417</v>
+      </c>
+      <c r="O38" s="1">
         <v>392</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="1">
         <v>366</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="1">
         <v>370</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="1">
         <v>431</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="1">
         <v>426</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="1">
         <v>405</v>
       </c>
-      <c r="U38">
-        <v>379</v>
-      </c>
-      <c r="V38">
+      <c r="U38" s="1">
+        <v>379</v>
+      </c>
+      <c r="V38" s="1">
         <v>381</v>
       </c>
-      <c r="W38">
+      <c r="W38" s="1">
         <v>455</v>
       </c>
-      <c r="X38">
-        <v>436</v>
-      </c>
-      <c r="Y38">
+      <c r="X38" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y38" s="1">
         <v>423</v>
       </c>
-      <c r="Z38">
+      <c r="Z38" s="1">
         <v>394</v>
       </c>
-      <c r="AA38">
+      <c r="AA38" s="1">
         <v>389</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B39">
         <v>2006</v>
       </c>
-      <c r="C39">
-        <v>379</v>
-      </c>
-      <c r="D39">
-        <v>379</v>
-      </c>
-      <c r="E39">
-        <v>356</v>
-      </c>
-      <c r="F39">
-        <v>335</v>
-      </c>
-      <c r="G39">
-        <v>335</v>
-      </c>
-      <c r="H39">
-        <v>398</v>
-      </c>
-      <c r="I39">
-        <v>398</v>
-      </c>
-      <c r="J39">
-        <v>374</v>
-      </c>
-      <c r="K39">
-        <v>351</v>
-      </c>
-      <c r="L39">
-        <v>351</v>
-      </c>
-      <c r="M39">
-        <v>417</v>
-      </c>
-      <c r="N39">
-        <v>417</v>
-      </c>
-      <c r="O39">
-        <v>392</v>
-      </c>
-      <c r="P39">
-        <v>366</v>
-      </c>
-      <c r="Q39">
-        <v>370</v>
-      </c>
-      <c r="R39">
-        <v>431</v>
-      </c>
-      <c r="S39">
+      <c r="C39" s="1">
+        <v>379</v>
+      </c>
+      <c r="D39" s="1">
+        <v>379</v>
+      </c>
+      <c r="E39" s="1">
+        <v>356</v>
+      </c>
+      <c r="F39" s="1">
+        <v>335</v>
+      </c>
+      <c r="G39" s="1">
+        <v>335</v>
+      </c>
+      <c r="H39" s="1">
+        <v>398</v>
+      </c>
+      <c r="I39" s="1">
+        <v>398</v>
+      </c>
+      <c r="J39" s="1">
+        <v>374</v>
+      </c>
+      <c r="K39" s="1">
+        <v>351</v>
+      </c>
+      <c r="L39" s="1">
+        <v>351</v>
+      </c>
+      <c r="M39" s="1">
+        <v>427</v>
+      </c>
+      <c r="N39" s="1">
+        <v>417</v>
+      </c>
+      <c r="O39" s="1">
+        <v>405</v>
+      </c>
+      <c r="P39" s="1">
+        <v>378</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>385</v>
+      </c>
+      <c r="R39" s="1">
+        <v>444</v>
+      </c>
+      <c r="S39" s="1">
         <v>426</v>
       </c>
-      <c r="T39">
-        <v>405</v>
-      </c>
-      <c r="U39">
-        <v>379</v>
-      </c>
-      <c r="V39">
-        <v>381</v>
-      </c>
-      <c r="W39">
-        <v>455</v>
-      </c>
-      <c r="X39">
-        <v>436</v>
-      </c>
-      <c r="Y39">
-        <v>423</v>
-      </c>
-      <c r="Z39">
-        <v>394</v>
-      </c>
-      <c r="AA39">
-        <v>389</v>
+      <c r="T39" s="1">
+        <v>418</v>
+      </c>
+      <c r="U39" s="1">
+        <v>388</v>
+      </c>
+      <c r="V39" s="1">
+        <v>393</v>
+      </c>
+      <c r="W39" s="1">
+        <v>469</v>
+      </c>
+      <c r="X39" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>402</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B40">
         <v>2006</v>
       </c>
-      <c r="C40">
-        <v>422</v>
-      </c>
-      <c r="D40">
-        <v>422</v>
-      </c>
-      <c r="E40">
-        <v>356</v>
-      </c>
-      <c r="F40">
-        <v>335</v>
-      </c>
-      <c r="G40">
-        <v>335</v>
-      </c>
-      <c r="H40">
-        <v>443</v>
-      </c>
-      <c r="I40">
-        <v>443</v>
-      </c>
-      <c r="J40">
-        <v>374</v>
-      </c>
-      <c r="K40">
-        <v>351</v>
-      </c>
-      <c r="L40">
-        <v>351</v>
-      </c>
-      <c r="M40">
-        <v>465</v>
-      </c>
-      <c r="N40">
-        <v>464</v>
-      </c>
-      <c r="O40">
+      <c r="C40" s="1">
+        <v>379</v>
+      </c>
+      <c r="D40" s="1">
+        <v>379</v>
+      </c>
+      <c r="E40" s="1">
+        <v>356</v>
+      </c>
+      <c r="F40" s="1">
+        <v>335</v>
+      </c>
+      <c r="G40" s="1">
+        <v>335</v>
+      </c>
+      <c r="H40" s="1">
+        <v>398</v>
+      </c>
+      <c r="I40" s="1">
+        <v>398</v>
+      </c>
+      <c r="J40" s="1">
+        <v>374</v>
+      </c>
+      <c r="K40" s="1">
+        <v>351</v>
+      </c>
+      <c r="L40" s="1">
+        <v>351</v>
+      </c>
+      <c r="M40" s="1">
+        <v>417</v>
+      </c>
+      <c r="N40" s="1">
+        <v>417</v>
+      </c>
+      <c r="O40" s="1">
+        <v>392</v>
+      </c>
+      <c r="P40" s="1">
+        <v>366</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>370</v>
+      </c>
+      <c r="R40" s="1">
+        <v>431</v>
+      </c>
+      <c r="S40" s="1">
+        <v>426</v>
+      </c>
+      <c r="T40" s="1">
         <v>405</v>
       </c>
-      <c r="P40">
-        <v>378</v>
-      </c>
-      <c r="Q40">
-        <v>385</v>
-      </c>
-      <c r="R40">
-        <v>495</v>
-      </c>
-      <c r="S40">
-        <v>489</v>
-      </c>
-      <c r="T40">
-        <v>418</v>
-      </c>
-      <c r="U40">
+      <c r="U40" s="1">
+        <v>379</v>
+      </c>
+      <c r="V40" s="1">
+        <v>381</v>
+      </c>
+      <c r="W40" s="1">
+        <v>455</v>
+      </c>
+      <c r="X40" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA40" s="1">
         <v>389</v>
-      </c>
-      <c r="V40">
-        <v>393</v>
-      </c>
-      <c r="W40">
-        <v>520</v>
-      </c>
-      <c r="X40">
-        <v>500</v>
-      </c>
-      <c r="Y40">
-        <v>436</v>
-      </c>
-      <c r="Z40">
-        <v>402</v>
-      </c>
-      <c r="AA40">
-        <v>402</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="B41">
         <v>2006</v>
       </c>
-      <c r="C41">
-        <v>379</v>
-      </c>
-      <c r="D41">
-        <v>379</v>
-      </c>
-      <c r="E41">
-        <v>356</v>
-      </c>
-      <c r="F41">
-        <v>335</v>
-      </c>
-      <c r="G41">
-        <v>335</v>
-      </c>
-      <c r="H41">
-        <v>398</v>
-      </c>
-      <c r="I41">
-        <v>398</v>
-      </c>
-      <c r="J41">
-        <v>374</v>
-      </c>
-      <c r="K41">
-        <v>351</v>
-      </c>
-      <c r="L41">
-        <v>351</v>
-      </c>
-      <c r="M41">
-        <v>417</v>
-      </c>
-      <c r="N41">
-        <v>417</v>
-      </c>
-      <c r="O41">
-        <v>392</v>
-      </c>
-      <c r="P41">
-        <v>369</v>
-      </c>
-      <c r="Q41">
-        <v>373</v>
-      </c>
-      <c r="R41">
-        <v>431</v>
-      </c>
-      <c r="S41">
+      <c r="C41" s="1">
+        <v>379</v>
+      </c>
+      <c r="D41" s="1">
+        <v>379</v>
+      </c>
+      <c r="E41" s="1">
+        <v>356</v>
+      </c>
+      <c r="F41" s="1">
+        <v>335</v>
+      </c>
+      <c r="G41" s="1">
+        <v>335</v>
+      </c>
+      <c r="H41" s="1">
+        <v>398</v>
+      </c>
+      <c r="I41" s="1">
+        <v>398</v>
+      </c>
+      <c r="J41" s="1">
+        <v>374</v>
+      </c>
+      <c r="K41" s="1">
+        <v>351</v>
+      </c>
+      <c r="L41" s="1">
+        <v>351</v>
+      </c>
+      <c r="M41" s="1">
+        <v>427</v>
+      </c>
+      <c r="N41" s="1">
+        <v>417</v>
+      </c>
+      <c r="O41" s="1">
+        <v>405</v>
+      </c>
+      <c r="P41" s="1">
+        <v>378</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>385</v>
+      </c>
+      <c r="R41" s="1">
+        <v>444</v>
+      </c>
+      <c r="S41" s="1">
         <v>426</v>
       </c>
-      <c r="T41">
-        <v>405</v>
-      </c>
-      <c r="U41">
-        <v>379</v>
-      </c>
-      <c r="V41">
-        <v>381</v>
-      </c>
-      <c r="W41">
-        <v>455</v>
-      </c>
-      <c r="X41">
-        <v>436</v>
-      </c>
-      <c r="Y41">
-        <v>423</v>
-      </c>
-      <c r="Z41">
-        <v>394</v>
-      </c>
-      <c r="AA41">
+      <c r="T41" s="1">
+        <v>418</v>
+      </c>
+      <c r="U41" s="1">
         <v>389</v>
+      </c>
+      <c r="V41" s="1">
+        <v>393</v>
+      </c>
+      <c r="W41" s="1">
+        <v>469</v>
+      </c>
+      <c r="X41" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B42">
         <v>2006</v>
       </c>
-      <c r="C42">
-        <v>379</v>
-      </c>
-      <c r="D42">
-        <v>379</v>
-      </c>
-      <c r="E42">
-        <v>356</v>
-      </c>
-      <c r="F42">
-        <v>335</v>
-      </c>
-      <c r="G42">
-        <v>335</v>
-      </c>
-      <c r="H42">
-        <v>398</v>
-      </c>
-      <c r="I42">
-        <v>398</v>
-      </c>
-      <c r="J42">
-        <v>374</v>
-      </c>
-      <c r="K42">
-        <v>351</v>
-      </c>
-      <c r="L42">
-        <v>351</v>
-      </c>
-      <c r="M42">
-        <v>427</v>
-      </c>
-      <c r="N42">
-        <v>417</v>
-      </c>
-      <c r="O42">
-        <v>405</v>
-      </c>
-      <c r="P42">
-        <v>377</v>
-      </c>
-      <c r="Q42">
-        <v>385</v>
-      </c>
-      <c r="R42">
-        <v>444</v>
-      </c>
-      <c r="S42">
-        <v>426</v>
-      </c>
-      <c r="T42">
-        <v>418</v>
-      </c>
-      <c r="U42">
-        <v>388</v>
-      </c>
-      <c r="V42">
-        <v>393</v>
-      </c>
-      <c r="W42">
-        <v>469</v>
-      </c>
-      <c r="X42">
-        <v>436</v>
-      </c>
-      <c r="Y42">
-        <v>436</v>
-      </c>
-      <c r="Z42">
-        <v>402</v>
-      </c>
-      <c r="AA42">
-        <v>402</v>
+      <c r="C42" s="1">
+        <v>485</v>
+      </c>
+      <c r="D42" s="1">
+        <v>485</v>
+      </c>
+      <c r="E42" s="1">
+        <v>356</v>
+      </c>
+      <c r="F42" s="1">
+        <v>335</v>
+      </c>
+      <c r="G42" s="1">
+        <v>335</v>
+      </c>
+      <c r="H42" s="1">
+        <v>509</v>
+      </c>
+      <c r="I42" s="1">
+        <v>509</v>
+      </c>
+      <c r="J42" s="1">
+        <v>374</v>
+      </c>
+      <c r="K42" s="1">
+        <v>351</v>
+      </c>
+      <c r="L42" s="1">
+        <v>351</v>
+      </c>
+      <c r="M42" s="1">
+        <v>564</v>
+      </c>
+      <c r="N42" s="1">
+        <v>534</v>
+      </c>
+      <c r="O42" s="1">
+        <v>435</v>
+      </c>
+      <c r="P42" s="1">
+        <v>408</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>404</v>
+      </c>
+      <c r="R42" s="1">
+        <v>597</v>
+      </c>
+      <c r="S42" s="1">
+        <v>562</v>
+      </c>
+      <c r="T42" s="1">
+        <v>448</v>
+      </c>
+      <c r="U42" s="1">
+        <v>419</v>
+      </c>
+      <c r="V42" s="1">
+        <v>412</v>
+      </c>
+      <c r="W42" s="1">
+        <v>623</v>
+      </c>
+      <c r="X42" s="1">
+        <v>575</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>466</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>433</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B43">
         <v>2006</v>
       </c>
-      <c r="C43">
-        <v>379</v>
-      </c>
-      <c r="D43">
-        <v>379</v>
-      </c>
-      <c r="E43">
-        <v>356</v>
-      </c>
-      <c r="F43">
-        <v>335</v>
-      </c>
-      <c r="G43">
-        <v>335</v>
-      </c>
-      <c r="H43">
-        <v>398</v>
-      </c>
-      <c r="I43">
-        <v>398</v>
-      </c>
-      <c r="J43">
-        <v>374</v>
-      </c>
-      <c r="K43">
-        <v>351</v>
-      </c>
-      <c r="L43">
-        <v>351</v>
-      </c>
-      <c r="M43">
-        <v>417</v>
-      </c>
-      <c r="N43">
-        <v>417</v>
-      </c>
-      <c r="O43">
+      <c r="C43" s="1">
+        <v>379</v>
+      </c>
+      <c r="D43" s="1">
+        <v>379</v>
+      </c>
+      <c r="E43" s="1">
+        <v>356</v>
+      </c>
+      <c r="F43" s="1">
+        <v>335</v>
+      </c>
+      <c r="G43" s="1">
+        <v>335</v>
+      </c>
+      <c r="H43" s="1">
+        <v>398</v>
+      </c>
+      <c r="I43" s="1">
+        <v>398</v>
+      </c>
+      <c r="J43" s="1">
+        <v>374</v>
+      </c>
+      <c r="K43" s="1">
+        <v>351</v>
+      </c>
+      <c r="L43" s="1">
+        <v>351</v>
+      </c>
+      <c r="M43" s="1">
+        <v>417</v>
+      </c>
+      <c r="N43" s="1">
+        <v>417</v>
+      </c>
+      <c r="O43" s="1">
         <v>392</v>
       </c>
-      <c r="P43">
-        <v>369</v>
-      </c>
-      <c r="Q43">
-        <v>373</v>
-      </c>
-      <c r="R43">
+      <c r="P43" s="1">
+        <v>366</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>370</v>
+      </c>
+      <c r="R43" s="1">
         <v>431</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="1">
         <v>426</v>
       </c>
-      <c r="T43">
+      <c r="T43" s="1">
         <v>405</v>
       </c>
-      <c r="U43">
-        <v>380</v>
-      </c>
-      <c r="V43">
+      <c r="U43" s="1">
+        <v>379</v>
+      </c>
+      <c r="V43" s="1">
         <v>381</v>
       </c>
-      <c r="W43">
+      <c r="W43" s="1">
         <v>455</v>
       </c>
-      <c r="X43">
-        <v>436</v>
-      </c>
-      <c r="Y43">
+      <c r="X43" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y43" s="1">
         <v>423</v>
       </c>
-      <c r="Z43">
+      <c r="Z43" s="1">
         <v>394</v>
       </c>
-      <c r="AA43">
+      <c r="AA43" s="1">
         <v>389</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="B44">
         <v>2006</v>
       </c>
-      <c r="C44">
-        <v>379</v>
-      </c>
-      <c r="D44">
-        <v>379</v>
-      </c>
-      <c r="E44">
-        <v>356</v>
-      </c>
-      <c r="F44">
-        <v>335</v>
-      </c>
-      <c r="G44">
-        <v>335</v>
-      </c>
-      <c r="H44">
-        <v>398</v>
-      </c>
-      <c r="I44">
-        <v>398</v>
-      </c>
-      <c r="J44">
-        <v>374</v>
-      </c>
-      <c r="K44">
-        <v>351</v>
-      </c>
-      <c r="L44">
-        <v>351</v>
-      </c>
-      <c r="M44">
-        <v>417</v>
-      </c>
-      <c r="N44">
-        <v>417</v>
-      </c>
-      <c r="O44">
+      <c r="C44" s="1">
+        <v>379</v>
+      </c>
+      <c r="D44" s="1">
+        <v>379</v>
+      </c>
+      <c r="E44" s="1">
+        <v>356</v>
+      </c>
+      <c r="F44" s="1">
+        <v>335</v>
+      </c>
+      <c r="G44" s="1">
+        <v>335</v>
+      </c>
+      <c r="H44" s="1">
+        <v>398</v>
+      </c>
+      <c r="I44" s="1">
+        <v>398</v>
+      </c>
+      <c r="J44" s="1">
+        <v>374</v>
+      </c>
+      <c r="K44" s="1">
+        <v>351</v>
+      </c>
+      <c r="L44" s="1">
+        <v>351</v>
+      </c>
+      <c r="M44" s="1">
+        <v>417</v>
+      </c>
+      <c r="N44" s="1">
+        <v>417</v>
+      </c>
+      <c r="O44" s="1">
         <v>392</v>
       </c>
-      <c r="P44">
-        <v>366</v>
-      </c>
-      <c r="Q44">
-        <v>370</v>
-      </c>
-      <c r="R44">
+      <c r="P44" s="1">
+        <v>369</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>373</v>
+      </c>
+      <c r="R44" s="1">
         <v>431</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="1">
         <v>426</v>
       </c>
-      <c r="T44">
+      <c r="T44" s="1">
         <v>405</v>
       </c>
-      <c r="U44">
-        <v>380</v>
-      </c>
-      <c r="V44">
+      <c r="U44" s="1">
+        <v>379</v>
+      </c>
+      <c r="V44" s="1">
         <v>381</v>
       </c>
-      <c r="W44">
+      <c r="W44" s="1">
         <v>455</v>
       </c>
-      <c r="X44">
-        <v>436</v>
-      </c>
-      <c r="Y44">
+      <c r="X44" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y44" s="1">
         <v>423</v>
       </c>
-      <c r="Z44">
+      <c r="Z44" s="1">
         <v>394</v>
       </c>
-      <c r="AA44">
+      <c r="AA44" s="1">
         <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B45">
         <v>2006</v>
       </c>
-      <c r="C45">
-        <v>379</v>
-      </c>
-      <c r="D45">
-        <v>379</v>
-      </c>
-      <c r="E45">
-        <v>356</v>
-      </c>
-      <c r="F45">
-        <v>335</v>
-      </c>
-      <c r="G45">
-        <v>335</v>
-      </c>
-      <c r="H45">
-        <v>398</v>
-      </c>
-      <c r="I45">
-        <v>398</v>
-      </c>
-      <c r="J45">
-        <v>374</v>
-      </c>
-      <c r="K45">
-        <v>351</v>
-      </c>
-      <c r="L45">
-        <v>351</v>
-      </c>
-      <c r="M45">
-        <v>417</v>
-      </c>
-      <c r="N45">
-        <v>417</v>
-      </c>
-      <c r="O45">
+      <c r="C45" s="1">
+        <v>379</v>
+      </c>
+      <c r="D45" s="1">
+        <v>379</v>
+      </c>
+      <c r="E45" s="1">
+        <v>356</v>
+      </c>
+      <c r="F45" s="1">
+        <v>335</v>
+      </c>
+      <c r="G45" s="1">
+        <v>335</v>
+      </c>
+      <c r="H45" s="1">
+        <v>398</v>
+      </c>
+      <c r="I45" s="1">
+        <v>398</v>
+      </c>
+      <c r="J45" s="1">
+        <v>374</v>
+      </c>
+      <c r="K45" s="1">
+        <v>351</v>
+      </c>
+      <c r="L45" s="1">
+        <v>351</v>
+      </c>
+      <c r="M45" s="1">
+        <v>427</v>
+      </c>
+      <c r="N45" s="1">
+        <v>417</v>
+      </c>
+      <c r="O45" s="1">
+        <v>405</v>
+      </c>
+      <c r="P45" s="1">
+        <v>374</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>382</v>
+      </c>
+      <c r="R45" s="1">
+        <v>444</v>
+      </c>
+      <c r="S45" s="1">
+        <v>426</v>
+      </c>
+      <c r="T45" s="1">
+        <v>418</v>
+      </c>
+      <c r="U45" s="1">
+        <v>388</v>
+      </c>
+      <c r="V45" s="1">
+        <v>393</v>
+      </c>
+      <c r="W45" s="1">
+        <v>469</v>
+      </c>
+      <c r="X45" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46">
+        <v>2006</v>
+      </c>
+      <c r="C46" s="1">
+        <v>379</v>
+      </c>
+      <c r="D46" s="1">
+        <v>379</v>
+      </c>
+      <c r="E46" s="1">
+        <v>356</v>
+      </c>
+      <c r="F46" s="1">
+        <v>335</v>
+      </c>
+      <c r="G46" s="1">
+        <v>335</v>
+      </c>
+      <c r="H46" s="1">
+        <v>398</v>
+      </c>
+      <c r="I46" s="1">
+        <v>398</v>
+      </c>
+      <c r="J46" s="1">
+        <v>374</v>
+      </c>
+      <c r="K46" s="1">
+        <v>351</v>
+      </c>
+      <c r="L46" s="1">
+        <v>351</v>
+      </c>
+      <c r="M46" s="1">
+        <v>417</v>
+      </c>
+      <c r="N46" s="1">
+        <v>417</v>
+      </c>
+      <c r="O46" s="1">
         <v>392</v>
       </c>
-      <c r="P45">
+      <c r="P46" s="1">
         <v>369</v>
       </c>
-      <c r="Q45">
+      <c r="Q46" s="1">
         <v>373</v>
       </c>
-      <c r="R45">
+      <c r="R46" s="1">
         <v>431</v>
       </c>
-      <c r="S45">
+      <c r="S46" s="1">
         <v>426</v>
       </c>
-      <c r="T45">
+      <c r="T46" s="1">
         <v>405</v>
       </c>
-      <c r="U45">
-        <v>379</v>
-      </c>
-      <c r="V45">
+      <c r="U46" s="1">
+        <v>380</v>
+      </c>
+      <c r="V46" s="1">
         <v>381</v>
       </c>
-      <c r="W45">
+      <c r="W46" s="1">
         <v>455</v>
       </c>
-      <c r="X45">
-        <v>436</v>
-      </c>
-      <c r="Y45">
+      <c r="X46" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y46" s="1">
         <v>423</v>
       </c>
-      <c r="Z45">
+      <c r="Z46" s="1">
         <v>394</v>
       </c>
-      <c r="AA45">
+      <c r="AA46" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47">
+        <v>2006</v>
+      </c>
+      <c r="C47" s="1">
+        <v>379</v>
+      </c>
+      <c r="D47" s="1">
+        <v>379</v>
+      </c>
+      <c r="E47" s="1">
+        <v>356</v>
+      </c>
+      <c r="F47" s="1">
+        <v>335</v>
+      </c>
+      <c r="G47" s="1">
+        <v>335</v>
+      </c>
+      <c r="H47" s="1">
+        <v>398</v>
+      </c>
+      <c r="I47" s="1">
+        <v>398</v>
+      </c>
+      <c r="J47" s="1">
+        <v>374</v>
+      </c>
+      <c r="K47" s="1">
+        <v>351</v>
+      </c>
+      <c r="L47" s="1">
+        <v>351</v>
+      </c>
+      <c r="M47" s="1">
+        <v>417</v>
+      </c>
+      <c r="N47" s="1">
+        <v>417</v>
+      </c>
+      <c r="O47" s="1">
+        <v>392</v>
+      </c>
+      <c r="P47" s="1">
+        <v>366</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>370</v>
+      </c>
+      <c r="R47" s="1">
+        <v>431</v>
+      </c>
+      <c r="S47" s="1">
+        <v>426</v>
+      </c>
+      <c r="T47" s="1">
+        <v>405</v>
+      </c>
+      <c r="U47" s="1">
+        <v>379</v>
+      </c>
+      <c r="V47" s="1">
+        <v>381</v>
+      </c>
+      <c r="W47" s="1">
+        <v>455</v>
+      </c>
+      <c r="X47" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48">
+        <v>2006</v>
+      </c>
+      <c r="C48" s="1">
+        <v>379</v>
+      </c>
+      <c r="D48" s="1">
+        <v>379</v>
+      </c>
+      <c r="E48" s="1">
+        <v>356</v>
+      </c>
+      <c r="F48" s="1">
+        <v>335</v>
+      </c>
+      <c r="G48" s="1">
+        <v>335</v>
+      </c>
+      <c r="H48" s="1">
+        <v>398</v>
+      </c>
+      <c r="I48" s="1">
+        <v>398</v>
+      </c>
+      <c r="J48" s="1">
+        <v>374</v>
+      </c>
+      <c r="K48" s="1">
+        <v>351</v>
+      </c>
+      <c r="L48" s="1">
+        <v>351</v>
+      </c>
+      <c r="M48" s="1">
+        <v>427</v>
+      </c>
+      <c r="N48" s="1">
+        <v>417</v>
+      </c>
+      <c r="O48" s="1">
+        <v>405</v>
+      </c>
+      <c r="P48" s="1">
+        <v>378</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>385</v>
+      </c>
+      <c r="R48" s="1">
+        <v>444</v>
+      </c>
+      <c r="S48" s="1">
+        <v>426</v>
+      </c>
+      <c r="T48" s="1">
+        <v>418</v>
+      </c>
+      <c r="U48" s="1">
+        <v>388</v>
+      </c>
+      <c r="V48" s="1">
+        <v>393</v>
+      </c>
+      <c r="W48" s="1">
+        <v>469</v>
+      </c>
+      <c r="X48" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49">
+        <v>2006</v>
+      </c>
+      <c r="C49" s="1">
+        <v>335</v>
+      </c>
+      <c r="D49" s="1">
+        <v>335</v>
+      </c>
+      <c r="E49" s="1">
+        <v>335</v>
+      </c>
+      <c r="F49" s="1">
+        <v>313</v>
+      </c>
+      <c r="G49" s="1">
+        <v>313</v>
+      </c>
+      <c r="H49" s="1">
+        <v>351</v>
+      </c>
+      <c r="I49" s="1">
+        <v>351</v>
+      </c>
+      <c r="J49" s="1">
+        <v>351</v>
+      </c>
+      <c r="K49" s="1">
+        <v>329</v>
+      </c>
+      <c r="L49" s="1">
+        <v>329</v>
+      </c>
+      <c r="M49" s="1">
+        <v>389</v>
+      </c>
+      <c r="N49" s="1">
+        <v>386</v>
+      </c>
+      <c r="O49" s="1">
+        <v>386</v>
+      </c>
+      <c r="P49" s="1">
+        <v>361</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>372</v>
+      </c>
+      <c r="R49" s="1">
+        <v>405</v>
+      </c>
+      <c r="S49" s="1">
+        <v>399</v>
+      </c>
+      <c r="T49" s="1">
+        <v>399</v>
+      </c>
+      <c r="U49" s="1">
+        <v>372</v>
+      </c>
+      <c r="V49" s="1">
+        <v>380</v>
+      </c>
+      <c r="W49" s="1">
+        <v>428</v>
+      </c>
+      <c r="X49" s="1">
+        <v>416</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>416</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>388</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50">
+        <v>2006</v>
+      </c>
+      <c r="C50" s="1">
+        <v>379</v>
+      </c>
+      <c r="D50" s="1">
+        <v>379</v>
+      </c>
+      <c r="E50" s="1">
+        <v>356</v>
+      </c>
+      <c r="F50" s="1">
+        <v>335</v>
+      </c>
+      <c r="G50" s="1">
+        <v>335</v>
+      </c>
+      <c r="H50" s="1">
+        <v>398</v>
+      </c>
+      <c r="I50" s="1">
+        <v>398</v>
+      </c>
+      <c r="J50" s="1">
+        <v>374</v>
+      </c>
+      <c r="K50" s="1">
+        <v>351</v>
+      </c>
+      <c r="L50" s="1">
+        <v>351</v>
+      </c>
+      <c r="M50" s="1">
+        <v>417</v>
+      </c>
+      <c r="N50" s="1">
+        <v>417</v>
+      </c>
+      <c r="O50" s="1">
+        <v>392</v>
+      </c>
+      <c r="P50" s="1">
+        <v>366</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>370</v>
+      </c>
+      <c r="R50" s="1">
+        <v>431</v>
+      </c>
+      <c r="S50" s="1">
+        <v>426</v>
+      </c>
+      <c r="T50" s="1">
+        <v>405</v>
+      </c>
+      <c r="U50" s="1">
+        <v>379</v>
+      </c>
+      <c r="V50" s="1">
+        <v>381</v>
+      </c>
+      <c r="W50" s="1">
+        <v>455</v>
+      </c>
+      <c r="X50" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51">
+        <v>2006</v>
+      </c>
+      <c r="C51" s="1">
+        <v>379</v>
+      </c>
+      <c r="D51" s="1">
+        <v>379</v>
+      </c>
+      <c r="E51" s="1">
+        <v>362</v>
+      </c>
+      <c r="F51" s="1">
+        <v>362</v>
+      </c>
+      <c r="G51" s="1">
+        <v>362</v>
+      </c>
+      <c r="H51" s="1">
+        <v>398</v>
+      </c>
+      <c r="I51" s="1">
+        <v>398</v>
+      </c>
+      <c r="J51" s="1">
+        <v>380</v>
+      </c>
+      <c r="K51" s="1">
+        <v>369</v>
+      </c>
+      <c r="L51" s="1">
+        <v>369</v>
+      </c>
+      <c r="M51" s="1">
+        <v>471</v>
+      </c>
+      <c r="N51" s="1">
+        <v>440</v>
+      </c>
+      <c r="O51" s="1">
+        <v>440</v>
+      </c>
+      <c r="P51" s="1">
+        <v>431</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>427</v>
+      </c>
+      <c r="R51" s="1">
+        <v>488</v>
+      </c>
+      <c r="S51" s="1">
+        <v>453</v>
+      </c>
+      <c r="T51" s="1">
+        <v>453</v>
+      </c>
+      <c r="U51" s="1">
+        <v>443</v>
+      </c>
+      <c r="V51" s="1">
+        <v>436</v>
+      </c>
+      <c r="W51" s="1">
+        <v>512</v>
+      </c>
+      <c r="X51" s="1">
+        <v>471</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>471</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>450</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52">
+        <v>2006</v>
+      </c>
+      <c r="C52" s="1">
+        <v>338</v>
+      </c>
+      <c r="D52" s="1">
+        <v>338</v>
+      </c>
+      <c r="E52" s="1">
+        <v>356</v>
+      </c>
+      <c r="F52" s="1">
+        <v>335</v>
+      </c>
+      <c r="G52" s="1">
+        <v>335</v>
+      </c>
+      <c r="H52" s="1">
+        <v>354</v>
+      </c>
+      <c r="I52" s="1">
+        <v>354</v>
+      </c>
+      <c r="J52" s="1">
+        <v>374</v>
+      </c>
+      <c r="K52" s="1">
+        <v>351</v>
+      </c>
+      <c r="L52" s="1">
+        <v>351</v>
+      </c>
+      <c r="M52" s="1">
+        <v>377</v>
+      </c>
+      <c r="N52" s="1">
+        <v>392</v>
+      </c>
+      <c r="O52" s="1">
+        <v>392</v>
+      </c>
+      <c r="P52" s="1">
+        <v>369</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>373</v>
+      </c>
+      <c r="R52" s="1">
+        <v>394</v>
+      </c>
+      <c r="S52" s="1">
+        <v>405</v>
+      </c>
+      <c r="T52" s="1">
+        <v>405</v>
+      </c>
+      <c r="U52" s="1">
+        <v>380</v>
+      </c>
+      <c r="V52" s="1">
+        <v>381</v>
+      </c>
+      <c r="W52" s="1">
+        <v>417</v>
+      </c>
+      <c r="X52" s="1">
+        <v>423</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53">
+        <v>2006</v>
+      </c>
+      <c r="C53" s="1">
+        <v>379</v>
+      </c>
+      <c r="D53" s="1">
+        <v>379</v>
+      </c>
+      <c r="E53" s="1">
+        <v>356</v>
+      </c>
+      <c r="F53" s="1">
+        <v>335</v>
+      </c>
+      <c r="G53" s="1">
+        <v>335</v>
+      </c>
+      <c r="H53" s="1">
+        <v>398</v>
+      </c>
+      <c r="I53" s="1">
+        <v>398</v>
+      </c>
+      <c r="J53" s="1">
+        <v>374</v>
+      </c>
+      <c r="K53" s="1">
+        <v>351</v>
+      </c>
+      <c r="L53" s="1">
+        <v>351</v>
+      </c>
+      <c r="M53" s="1">
+        <v>427</v>
+      </c>
+      <c r="N53" s="1">
+        <v>417</v>
+      </c>
+      <c r="O53" s="1">
+        <v>405</v>
+      </c>
+      <c r="P53" s="1">
+        <v>378</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>385</v>
+      </c>
+      <c r="R53" s="1">
+        <v>444</v>
+      </c>
+      <c r="S53" s="1">
+        <v>426</v>
+      </c>
+      <c r="T53" s="1">
+        <v>418</v>
+      </c>
+      <c r="U53" s="1">
+        <v>388</v>
+      </c>
+      <c r="V53" s="1">
+        <v>393</v>
+      </c>
+      <c r="W53" s="1">
+        <v>469</v>
+      </c>
+      <c r="X53" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54">
+        <v>2006</v>
+      </c>
+      <c r="C54" s="1">
+        <v>379</v>
+      </c>
+      <c r="D54" s="1">
+        <v>379</v>
+      </c>
+      <c r="E54" s="1">
+        <v>356</v>
+      </c>
+      <c r="F54" s="1">
+        <v>335</v>
+      </c>
+      <c r="G54" s="1">
+        <v>335</v>
+      </c>
+      <c r="H54" s="1">
+        <v>398</v>
+      </c>
+      <c r="I54" s="1">
+        <v>398</v>
+      </c>
+      <c r="J54" s="1">
+        <v>374</v>
+      </c>
+      <c r="K54" s="1">
+        <v>351</v>
+      </c>
+      <c r="L54" s="1">
+        <v>351</v>
+      </c>
+      <c r="M54" s="1">
+        <v>417</v>
+      </c>
+      <c r="N54" s="1">
+        <v>417</v>
+      </c>
+      <c r="O54" s="1">
+        <v>392</v>
+      </c>
+      <c r="P54" s="1">
+        <v>366</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>370</v>
+      </c>
+      <c r="R54" s="1">
+        <v>431</v>
+      </c>
+      <c r="S54" s="1">
+        <v>426</v>
+      </c>
+      <c r="T54" s="1">
+        <v>405</v>
+      </c>
+      <c r="U54" s="1">
+        <v>379</v>
+      </c>
+      <c r="V54" s="1">
+        <v>381</v>
+      </c>
+      <c r="W54" s="1">
+        <v>455</v>
+      </c>
+      <c r="X54" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA54" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55">
+        <v>2006</v>
+      </c>
+      <c r="C55" s="1">
+        <v>469</v>
+      </c>
+      <c r="D55" s="1">
+        <v>469</v>
+      </c>
+      <c r="E55" s="1">
+        <v>453</v>
+      </c>
+      <c r="F55" s="1">
+        <v>446</v>
+      </c>
+      <c r="G55" s="1">
+        <v>446</v>
+      </c>
+      <c r="H55" s="1">
+        <v>492</v>
+      </c>
+      <c r="I55" s="1">
+        <v>492</v>
+      </c>
+      <c r="J55" s="1">
+        <v>476</v>
+      </c>
+      <c r="K55" s="1">
+        <v>469</v>
+      </c>
+      <c r="L55" s="1">
+        <v>469</v>
+      </c>
+      <c r="M55" s="1">
+        <v>550</v>
+      </c>
+      <c r="N55" s="1">
+        <v>529</v>
+      </c>
+      <c r="O55" s="1">
+        <v>529</v>
+      </c>
+      <c r="P55" s="1">
+        <v>505</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>500</v>
+      </c>
+      <c r="R55" s="1">
+        <v>569</v>
+      </c>
+      <c r="S55" s="1">
+        <v>544</v>
+      </c>
+      <c r="T55" s="1">
+        <v>544</v>
+      </c>
+      <c r="U55" s="1">
+        <v>519</v>
+      </c>
+      <c r="V55" s="1">
+        <v>512</v>
+      </c>
+      <c r="W55" s="1">
+        <v>595</v>
+      </c>
+      <c r="X55" s="1">
+        <v>564</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>564</v>
+      </c>
+      <c r="Z55" s="1">
+        <v>535</v>
+      </c>
+      <c r="AA55" s="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56">
+        <v>2006</v>
+      </c>
+      <c r="C56" s="1">
+        <v>379</v>
+      </c>
+      <c r="D56" s="1">
+        <v>379</v>
+      </c>
+      <c r="E56" s="1">
+        <v>356</v>
+      </c>
+      <c r="F56" s="1">
+        <v>335</v>
+      </c>
+      <c r="G56" s="1">
+        <v>335</v>
+      </c>
+      <c r="H56" s="1">
+        <v>398</v>
+      </c>
+      <c r="I56" s="1">
+        <v>398</v>
+      </c>
+      <c r="J56" s="1">
+        <v>374</v>
+      </c>
+      <c r="K56" s="1">
+        <v>351</v>
+      </c>
+      <c r="L56" s="1">
+        <v>351</v>
+      </c>
+      <c r="M56" s="1">
+        <v>427</v>
+      </c>
+      <c r="N56" s="1">
+        <v>417</v>
+      </c>
+      <c r="O56" s="1">
+        <v>405</v>
+      </c>
+      <c r="P56" s="1">
+        <v>374</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>382</v>
+      </c>
+      <c r="R56" s="1">
+        <v>444</v>
+      </c>
+      <c r="S56" s="1">
+        <v>426</v>
+      </c>
+      <c r="T56" s="1">
+        <v>418</v>
+      </c>
+      <c r="U56" s="1">
+        <v>389</v>
+      </c>
+      <c r="V56" s="1">
+        <v>393</v>
+      </c>
+      <c r="W56" s="1">
+        <v>469</v>
+      </c>
+      <c r="X56" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57">
+        <v>2006</v>
+      </c>
+      <c r="C57" s="1">
+        <v>402</v>
+      </c>
+      <c r="D57" s="1">
+        <v>402</v>
+      </c>
+      <c r="E57" s="1">
+        <v>379</v>
+      </c>
+      <c r="F57" s="1">
+        <v>356</v>
+      </c>
+      <c r="G57" s="1">
+        <v>356</v>
+      </c>
+      <c r="H57" s="1">
+        <v>422</v>
+      </c>
+      <c r="I57" s="1">
+        <v>422</v>
+      </c>
+      <c r="J57" s="1">
+        <v>398</v>
+      </c>
+      <c r="K57" s="1">
+        <v>374</v>
+      </c>
+      <c r="L57" s="1">
+        <v>374</v>
+      </c>
+      <c r="M57" s="1">
+        <v>491</v>
+      </c>
+      <c r="N57" s="1">
+        <v>442</v>
+      </c>
+      <c r="O57" s="1">
+        <v>433</v>
+      </c>
+      <c r="P57" s="1">
+        <v>426</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>422</v>
+      </c>
+      <c r="R57" s="1">
+        <v>509</v>
+      </c>
+      <c r="S57" s="1">
+        <v>452</v>
+      </c>
+      <c r="T57" s="1">
+        <v>445</v>
+      </c>
+      <c r="U57" s="1">
+        <v>438</v>
+      </c>
+      <c r="V57" s="1">
+        <v>431</v>
+      </c>
+      <c r="W57" s="1">
+        <v>533</v>
+      </c>
+      <c r="X57" s="1">
+        <v>462</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>461</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>453</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58">
+        <v>2006</v>
+      </c>
+      <c r="C58" s="1">
+        <v>379</v>
+      </c>
+      <c r="D58" s="1">
+        <v>379</v>
+      </c>
+      <c r="E58" s="1">
+        <v>356</v>
+      </c>
+      <c r="F58" s="1">
+        <v>335</v>
+      </c>
+      <c r="G58" s="1">
+        <v>335</v>
+      </c>
+      <c r="H58" s="1">
+        <v>398</v>
+      </c>
+      <c r="I58" s="1">
+        <v>398</v>
+      </c>
+      <c r="J58" s="1">
+        <v>374</v>
+      </c>
+      <c r="K58" s="1">
+        <v>351</v>
+      </c>
+      <c r="L58" s="1">
+        <v>351</v>
+      </c>
+      <c r="M58" s="1">
+        <v>417</v>
+      </c>
+      <c r="N58" s="1">
+        <v>417</v>
+      </c>
+      <c r="O58" s="1">
+        <v>392</v>
+      </c>
+      <c r="P58" s="1">
+        <v>369</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>373</v>
+      </c>
+      <c r="R58" s="1">
+        <v>431</v>
+      </c>
+      <c r="S58" s="1">
+        <v>426</v>
+      </c>
+      <c r="T58" s="1">
+        <v>405</v>
+      </c>
+      <c r="U58" s="1">
+        <v>379</v>
+      </c>
+      <c r="V58" s="1">
+        <v>381</v>
+      </c>
+      <c r="W58" s="1">
+        <v>455</v>
+      </c>
+      <c r="X58" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59">
+        <v>2006</v>
+      </c>
+      <c r="C59" s="1">
+        <v>379</v>
+      </c>
+      <c r="D59" s="1">
+        <v>379</v>
+      </c>
+      <c r="E59" s="1">
+        <v>356</v>
+      </c>
+      <c r="F59" s="1">
+        <v>335</v>
+      </c>
+      <c r="G59" s="1">
+        <v>335</v>
+      </c>
+      <c r="H59" s="1">
+        <v>398</v>
+      </c>
+      <c r="I59" s="1">
+        <v>398</v>
+      </c>
+      <c r="J59" s="1">
+        <v>374</v>
+      </c>
+      <c r="K59" s="1">
+        <v>351</v>
+      </c>
+      <c r="L59" s="1">
+        <v>351</v>
+      </c>
+      <c r="M59" s="1">
+        <v>427</v>
+      </c>
+      <c r="N59" s="1">
+        <v>417</v>
+      </c>
+      <c r="O59" s="1">
+        <v>405</v>
+      </c>
+      <c r="P59" s="1">
+        <v>378</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>385</v>
+      </c>
+      <c r="R59" s="1">
+        <v>444</v>
+      </c>
+      <c r="S59" s="1">
+        <v>426</v>
+      </c>
+      <c r="T59" s="1">
+        <v>418</v>
+      </c>
+      <c r="U59" s="1">
+        <v>389</v>
+      </c>
+      <c r="V59" s="1">
+        <v>393</v>
+      </c>
+      <c r="W59" s="1">
+        <v>469</v>
+      </c>
+      <c r="X59" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z59" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60">
+        <v>2006</v>
+      </c>
+      <c r="C60" s="1">
+        <v>379</v>
+      </c>
+      <c r="D60" s="1">
+        <v>379</v>
+      </c>
+      <c r="E60" s="1">
+        <v>356</v>
+      </c>
+      <c r="F60" s="1">
+        <v>335</v>
+      </c>
+      <c r="G60" s="1">
+        <v>335</v>
+      </c>
+      <c r="H60" s="1">
+        <v>398</v>
+      </c>
+      <c r="I60" s="1">
+        <v>398</v>
+      </c>
+      <c r="J60" s="1">
+        <v>374</v>
+      </c>
+      <c r="K60" s="1">
+        <v>351</v>
+      </c>
+      <c r="L60" s="1">
+        <v>351</v>
+      </c>
+      <c r="M60" s="1">
+        <v>417</v>
+      </c>
+      <c r="N60" s="1">
+        <v>417</v>
+      </c>
+      <c r="O60" s="1">
+        <v>392</v>
+      </c>
+      <c r="P60" s="1">
+        <v>369</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>373</v>
+      </c>
+      <c r="R60" s="1">
+        <v>431</v>
+      </c>
+      <c r="S60" s="1">
+        <v>426</v>
+      </c>
+      <c r="T60" s="1">
+        <v>405</v>
+      </c>
+      <c r="U60" s="1">
+        <v>379</v>
+      </c>
+      <c r="V60" s="1">
+        <v>381</v>
+      </c>
+      <c r="W60" s="1">
+        <v>455</v>
+      </c>
+      <c r="X60" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61">
+        <v>2006</v>
+      </c>
+      <c r="C61" s="1">
+        <v>379</v>
+      </c>
+      <c r="D61" s="1">
+        <v>379</v>
+      </c>
+      <c r="E61" s="1">
+        <v>356</v>
+      </c>
+      <c r="F61" s="1">
+        <v>335</v>
+      </c>
+      <c r="G61" s="1">
+        <v>335</v>
+      </c>
+      <c r="H61" s="1">
+        <v>398</v>
+      </c>
+      <c r="I61" s="1">
+        <v>398</v>
+      </c>
+      <c r="J61" s="1">
+        <v>374</v>
+      </c>
+      <c r="K61" s="1">
+        <v>351</v>
+      </c>
+      <c r="L61" s="1">
+        <v>351</v>
+      </c>
+      <c r="M61" s="1">
+        <v>417</v>
+      </c>
+      <c r="N61" s="1">
+        <v>417</v>
+      </c>
+      <c r="O61" s="1">
+        <v>392</v>
+      </c>
+      <c r="P61" s="1">
+        <v>369</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>373</v>
+      </c>
+      <c r="R61" s="1">
+        <v>431</v>
+      </c>
+      <c r="S61" s="1">
+        <v>426</v>
+      </c>
+      <c r="T61" s="1">
+        <v>405</v>
+      </c>
+      <c r="U61" s="1">
+        <v>380</v>
+      </c>
+      <c r="V61" s="1">
+        <v>381</v>
+      </c>
+      <c r="W61" s="1">
+        <v>455</v>
+      </c>
+      <c r="X61" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62">
+        <v>2006</v>
+      </c>
+      <c r="C62" s="1">
+        <v>379</v>
+      </c>
+      <c r="D62" s="1">
+        <v>379</v>
+      </c>
+      <c r="E62" s="1">
+        <v>356</v>
+      </c>
+      <c r="F62" s="1">
+        <v>335</v>
+      </c>
+      <c r="G62" s="1">
+        <v>335</v>
+      </c>
+      <c r="H62" s="1">
+        <v>398</v>
+      </c>
+      <c r="I62" s="1">
+        <v>398</v>
+      </c>
+      <c r="J62" s="1">
+        <v>374</v>
+      </c>
+      <c r="K62" s="1">
+        <v>351</v>
+      </c>
+      <c r="L62" s="1">
+        <v>351</v>
+      </c>
+      <c r="M62" s="1">
+        <v>427</v>
+      </c>
+      <c r="N62" s="1">
+        <v>417</v>
+      </c>
+      <c r="O62" s="1">
+        <v>405</v>
+      </c>
+      <c r="P62" s="1">
+        <v>378</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>385</v>
+      </c>
+      <c r="R62" s="1">
+        <v>444</v>
+      </c>
+      <c r="S62" s="1">
+        <v>426</v>
+      </c>
+      <c r="T62" s="1">
+        <v>418</v>
+      </c>
+      <c r="U62" s="1">
+        <v>388</v>
+      </c>
+      <c r="V62" s="1">
+        <v>393</v>
+      </c>
+      <c r="W62" s="1">
+        <v>469</v>
+      </c>
+      <c r="X62" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63">
+        <v>2006</v>
+      </c>
+      <c r="C63" s="1">
+        <v>379</v>
+      </c>
+      <c r="D63" s="1">
+        <v>379</v>
+      </c>
+      <c r="E63" s="1">
+        <v>356</v>
+      </c>
+      <c r="F63" s="1">
+        <v>335</v>
+      </c>
+      <c r="G63" s="1">
+        <v>335</v>
+      </c>
+      <c r="H63" s="1">
+        <v>398</v>
+      </c>
+      <c r="I63" s="1">
+        <v>398</v>
+      </c>
+      <c r="J63" s="1">
+        <v>374</v>
+      </c>
+      <c r="K63" s="1">
+        <v>351</v>
+      </c>
+      <c r="L63" s="1">
+        <v>351</v>
+      </c>
+      <c r="M63" s="1">
+        <v>427</v>
+      </c>
+      <c r="N63" s="1">
+        <v>417</v>
+      </c>
+      <c r="O63" s="1">
+        <v>405</v>
+      </c>
+      <c r="P63" s="1">
+        <v>374</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>382</v>
+      </c>
+      <c r="R63" s="1">
+        <v>444</v>
+      </c>
+      <c r="S63" s="1">
+        <v>426</v>
+      </c>
+      <c r="T63" s="1">
+        <v>418</v>
+      </c>
+      <c r="U63" s="1">
+        <v>388</v>
+      </c>
+      <c r="V63" s="1">
+        <v>393</v>
+      </c>
+      <c r="W63" s="1">
+        <v>469</v>
+      </c>
+      <c r="X63" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64">
+        <v>2006</v>
+      </c>
+      <c r="C64" s="1">
+        <v>386</v>
+      </c>
+      <c r="D64" s="1">
+        <v>386</v>
+      </c>
+      <c r="E64" s="1">
+        <v>379</v>
+      </c>
+      <c r="F64" s="1">
+        <v>356</v>
+      </c>
+      <c r="G64" s="1">
+        <v>356</v>
+      </c>
+      <c r="H64" s="1">
+        <v>406</v>
+      </c>
+      <c r="I64" s="1">
+        <v>406</v>
+      </c>
+      <c r="J64" s="1">
+        <v>398</v>
+      </c>
+      <c r="K64" s="1">
+        <v>374</v>
+      </c>
+      <c r="L64" s="1">
+        <v>374</v>
+      </c>
+      <c r="M64" s="1">
+        <v>477</v>
+      </c>
+      <c r="N64" s="1">
+        <v>433</v>
+      </c>
+      <c r="O64" s="1">
+        <v>433</v>
+      </c>
+      <c r="P64" s="1">
+        <v>426</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>422</v>
+      </c>
+      <c r="R64" s="1">
+        <v>495</v>
+      </c>
+      <c r="S64" s="1">
+        <v>445</v>
+      </c>
+      <c r="T64" s="1">
+        <v>445</v>
+      </c>
+      <c r="U64" s="1">
+        <v>438</v>
+      </c>
+      <c r="V64" s="1">
+        <v>431</v>
+      </c>
+      <c r="W64" s="1">
+        <v>519</v>
+      </c>
+      <c r="X64" s="1">
+        <v>462</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>462</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>453</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65">
+        <v>2006</v>
+      </c>
+      <c r="C65" s="1">
+        <v>379</v>
+      </c>
+      <c r="D65" s="1">
+        <v>379</v>
+      </c>
+      <c r="E65" s="1">
+        <v>356</v>
+      </c>
+      <c r="F65" s="1">
+        <v>335</v>
+      </c>
+      <c r="G65" s="1">
+        <v>335</v>
+      </c>
+      <c r="H65" s="1">
+        <v>398</v>
+      </c>
+      <c r="I65" s="1">
+        <v>398</v>
+      </c>
+      <c r="J65" s="1">
+        <v>374</v>
+      </c>
+      <c r="K65" s="1">
+        <v>351</v>
+      </c>
+      <c r="L65" s="1">
+        <v>351</v>
+      </c>
+      <c r="M65" s="1">
+        <v>417</v>
+      </c>
+      <c r="N65" s="1">
+        <v>417</v>
+      </c>
+      <c r="O65" s="1">
+        <v>392</v>
+      </c>
+      <c r="P65" s="1">
+        <v>368</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>372</v>
+      </c>
+      <c r="R65" s="1">
+        <v>431</v>
+      </c>
+      <c r="S65" s="1">
+        <v>426</v>
+      </c>
+      <c r="T65" s="1">
+        <v>405</v>
+      </c>
+      <c r="U65" s="1">
+        <v>379</v>
+      </c>
+      <c r="V65" s="1">
+        <v>381</v>
+      </c>
+      <c r="W65" s="1">
+        <v>455</v>
+      </c>
+      <c r="X65" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z65" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66">
+        <v>2006</v>
+      </c>
+      <c r="C66" s="1">
+        <v>379</v>
+      </c>
+      <c r="D66" s="1">
+        <v>379</v>
+      </c>
+      <c r="E66" s="1">
+        <v>356</v>
+      </c>
+      <c r="F66" s="1">
+        <v>335</v>
+      </c>
+      <c r="G66" s="1">
+        <v>335</v>
+      </c>
+      <c r="H66" s="1">
+        <v>398</v>
+      </c>
+      <c r="I66" s="1">
+        <v>398</v>
+      </c>
+      <c r="J66" s="1">
+        <v>374</v>
+      </c>
+      <c r="K66" s="1">
+        <v>351</v>
+      </c>
+      <c r="L66" s="1">
+        <v>351</v>
+      </c>
+      <c r="M66" s="1">
+        <v>427</v>
+      </c>
+      <c r="N66" s="1">
+        <v>417</v>
+      </c>
+      <c r="O66" s="1">
+        <v>405</v>
+      </c>
+      <c r="P66" s="1">
+        <v>378</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>385</v>
+      </c>
+      <c r="R66" s="1">
+        <v>444</v>
+      </c>
+      <c r="S66" s="1">
+        <v>426</v>
+      </c>
+      <c r="T66" s="1">
+        <v>418</v>
+      </c>
+      <c r="U66" s="1">
+        <v>389</v>
+      </c>
+      <c r="V66" s="1">
+        <v>393</v>
+      </c>
+      <c r="W66" s="1">
+        <v>469</v>
+      </c>
+      <c r="X66" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z66" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA66" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67">
+        <v>2006</v>
+      </c>
+      <c r="C67" s="1">
+        <v>379</v>
+      </c>
+      <c r="D67" s="1">
+        <v>379</v>
+      </c>
+      <c r="E67" s="1">
+        <v>356</v>
+      </c>
+      <c r="F67" s="1">
+        <v>335</v>
+      </c>
+      <c r="G67" s="1">
+        <v>335</v>
+      </c>
+      <c r="H67" s="1">
+        <v>398</v>
+      </c>
+      <c r="I67" s="1">
+        <v>398</v>
+      </c>
+      <c r="J67" s="1">
+        <v>374</v>
+      </c>
+      <c r="K67" s="1">
+        <v>351</v>
+      </c>
+      <c r="L67" s="1">
+        <v>351</v>
+      </c>
+      <c r="M67" s="1">
+        <v>417</v>
+      </c>
+      <c r="N67" s="1">
+        <v>417</v>
+      </c>
+      <c r="O67" s="1">
+        <v>392</v>
+      </c>
+      <c r="P67" s="1">
+        <v>369</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>373</v>
+      </c>
+      <c r="R67" s="1">
+        <v>431</v>
+      </c>
+      <c r="S67" s="1">
+        <v>426</v>
+      </c>
+      <c r="T67" s="1">
+        <v>405</v>
+      </c>
+      <c r="U67" s="1">
+        <v>380</v>
+      </c>
+      <c r="V67" s="1">
+        <v>381</v>
+      </c>
+      <c r="W67" s="1">
+        <v>455</v>
+      </c>
+      <c r="X67" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y67" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z67" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA67" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68">
+        <v>2006</v>
+      </c>
+      <c r="C68" s="1">
+        <v>379</v>
+      </c>
+      <c r="D68" s="1">
+        <v>379</v>
+      </c>
+      <c r="E68" s="1">
+        <v>356</v>
+      </c>
+      <c r="F68" s="1">
+        <v>335</v>
+      </c>
+      <c r="G68" s="1">
+        <v>335</v>
+      </c>
+      <c r="H68" s="1">
+        <v>398</v>
+      </c>
+      <c r="I68" s="1">
+        <v>398</v>
+      </c>
+      <c r="J68" s="1">
+        <v>374</v>
+      </c>
+      <c r="K68" s="1">
+        <v>351</v>
+      </c>
+      <c r="L68" s="1">
+        <v>351</v>
+      </c>
+      <c r="M68" s="1">
+        <v>427</v>
+      </c>
+      <c r="N68" s="1">
+        <v>417</v>
+      </c>
+      <c r="O68" s="1">
+        <v>405</v>
+      </c>
+      <c r="P68" s="1">
+        <v>378</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>385</v>
+      </c>
+      <c r="R68" s="1">
+        <v>444</v>
+      </c>
+      <c r="S68" s="1">
+        <v>426</v>
+      </c>
+      <c r="T68" s="1">
+        <v>418</v>
+      </c>
+      <c r="U68" s="1">
+        <v>388</v>
+      </c>
+      <c r="V68" s="1">
+        <v>393</v>
+      </c>
+      <c r="W68" s="1">
+        <v>469</v>
+      </c>
+      <c r="X68" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA68" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69">
+        <v>2006</v>
+      </c>
+      <c r="C69" s="1">
+        <v>379</v>
+      </c>
+      <c r="D69" s="1">
+        <v>379</v>
+      </c>
+      <c r="E69" s="1">
+        <v>356</v>
+      </c>
+      <c r="F69" s="1">
+        <v>335</v>
+      </c>
+      <c r="G69" s="1">
+        <v>335</v>
+      </c>
+      <c r="H69" s="1">
+        <v>398</v>
+      </c>
+      <c r="I69" s="1">
+        <v>398</v>
+      </c>
+      <c r="J69" s="1">
+        <v>374</v>
+      </c>
+      <c r="K69" s="1">
+        <v>351</v>
+      </c>
+      <c r="L69" s="1">
+        <v>351</v>
+      </c>
+      <c r="M69" s="1">
+        <v>417</v>
+      </c>
+      <c r="N69" s="1">
+        <v>417</v>
+      </c>
+      <c r="O69" s="1">
+        <v>392</v>
+      </c>
+      <c r="P69" s="1">
+        <v>366</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>370</v>
+      </c>
+      <c r="R69" s="1">
+        <v>431</v>
+      </c>
+      <c r="S69" s="1">
+        <v>426</v>
+      </c>
+      <c r="T69" s="1">
+        <v>405</v>
+      </c>
+      <c r="U69" s="1">
+        <v>379</v>
+      </c>
+      <c r="V69" s="1">
+        <v>381</v>
+      </c>
+      <c r="W69" s="1">
+        <v>455</v>
+      </c>
+      <c r="X69" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z69" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA69" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70">
+        <v>2006</v>
+      </c>
+      <c r="C70" s="1">
+        <v>379</v>
+      </c>
+      <c r="D70" s="1">
+        <v>379</v>
+      </c>
+      <c r="E70" s="1">
+        <v>356</v>
+      </c>
+      <c r="F70" s="1">
+        <v>335</v>
+      </c>
+      <c r="G70" s="1">
+        <v>335</v>
+      </c>
+      <c r="H70" s="1">
+        <v>398</v>
+      </c>
+      <c r="I70" s="1">
+        <v>398</v>
+      </c>
+      <c r="J70" s="1">
+        <v>374</v>
+      </c>
+      <c r="K70" s="1">
+        <v>351</v>
+      </c>
+      <c r="L70" s="1">
+        <v>351</v>
+      </c>
+      <c r="M70" s="1">
+        <v>417</v>
+      </c>
+      <c r="N70" s="1">
+        <v>417</v>
+      </c>
+      <c r="O70" s="1">
+        <v>392</v>
+      </c>
+      <c r="P70" s="1">
+        <v>368</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>372</v>
+      </c>
+      <c r="R70" s="1">
+        <v>431</v>
+      </c>
+      <c r="S70" s="1">
+        <v>426</v>
+      </c>
+      <c r="T70" s="1">
+        <v>405</v>
+      </c>
+      <c r="U70" s="1">
+        <v>379</v>
+      </c>
+      <c r="V70" s="1">
+        <v>381</v>
+      </c>
+      <c r="W70" s="1">
+        <v>455</v>
+      </c>
+      <c r="X70" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y70" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z70" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA70" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71">
+        <v>2006</v>
+      </c>
+      <c r="C71" s="1">
+        <v>379</v>
+      </c>
+      <c r="D71" s="1">
+        <v>379</v>
+      </c>
+      <c r="E71" s="1">
+        <v>356</v>
+      </c>
+      <c r="F71" s="1">
+        <v>335</v>
+      </c>
+      <c r="G71" s="1">
+        <v>335</v>
+      </c>
+      <c r="H71" s="1">
+        <v>398</v>
+      </c>
+      <c r="I71" s="1">
+        <v>398</v>
+      </c>
+      <c r="J71" s="1">
+        <v>374</v>
+      </c>
+      <c r="K71" s="1">
+        <v>351</v>
+      </c>
+      <c r="L71" s="1">
+        <v>351</v>
+      </c>
+      <c r="M71" s="1">
+        <v>427</v>
+      </c>
+      <c r="N71" s="1">
+        <v>417</v>
+      </c>
+      <c r="O71" s="1">
+        <v>405</v>
+      </c>
+      <c r="P71" s="1">
+        <v>374</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>382</v>
+      </c>
+      <c r="R71" s="1">
+        <v>444</v>
+      </c>
+      <c r="S71" s="1">
+        <v>426</v>
+      </c>
+      <c r="T71" s="1">
+        <v>418</v>
+      </c>
+      <c r="U71" s="1">
+        <v>389</v>
+      </c>
+      <c r="V71" s="1">
+        <v>393</v>
+      </c>
+      <c r="W71" s="1">
+        <v>469</v>
+      </c>
+      <c r="X71" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y71" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z71" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA71" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72">
+        <v>2006</v>
+      </c>
+      <c r="C72" s="1">
+        <v>379</v>
+      </c>
+      <c r="D72" s="1">
+        <v>379</v>
+      </c>
+      <c r="E72" s="1">
+        <v>356</v>
+      </c>
+      <c r="F72" s="1">
+        <v>335</v>
+      </c>
+      <c r="G72" s="1">
+        <v>335</v>
+      </c>
+      <c r="H72" s="1">
+        <v>398</v>
+      </c>
+      <c r="I72" s="1">
+        <v>398</v>
+      </c>
+      <c r="J72" s="1">
+        <v>374</v>
+      </c>
+      <c r="K72" s="1">
+        <v>351</v>
+      </c>
+      <c r="L72" s="1">
+        <v>351</v>
+      </c>
+      <c r="M72" s="1">
+        <v>427</v>
+      </c>
+      <c r="N72" s="1">
+        <v>417</v>
+      </c>
+      <c r="O72" s="1">
+        <v>405</v>
+      </c>
+      <c r="P72" s="1">
+        <v>378</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>385</v>
+      </c>
+      <c r="R72" s="1">
+        <v>444</v>
+      </c>
+      <c r="S72" s="1">
+        <v>426</v>
+      </c>
+      <c r="T72" s="1">
+        <v>418</v>
+      </c>
+      <c r="U72" s="1">
+        <v>388</v>
+      </c>
+      <c r="V72" s="1">
+        <v>393</v>
+      </c>
+      <c r="W72" s="1">
+        <v>469</v>
+      </c>
+      <c r="X72" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z72" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA72" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73">
+        <v>2006</v>
+      </c>
+      <c r="C73" s="1">
+        <v>379</v>
+      </c>
+      <c r="D73" s="1">
+        <v>379</v>
+      </c>
+      <c r="E73" s="1">
+        <v>356</v>
+      </c>
+      <c r="F73" s="1">
+        <v>335</v>
+      </c>
+      <c r="G73" s="1">
+        <v>335</v>
+      </c>
+      <c r="H73" s="1">
+        <v>398</v>
+      </c>
+      <c r="I73" s="1">
+        <v>398</v>
+      </c>
+      <c r="J73" s="1">
+        <v>374</v>
+      </c>
+      <c r="K73" s="1">
+        <v>351</v>
+      </c>
+      <c r="L73" s="1">
+        <v>351</v>
+      </c>
+      <c r="M73" s="1">
+        <v>427</v>
+      </c>
+      <c r="N73" s="1">
+        <v>417</v>
+      </c>
+      <c r="O73" s="1">
+        <v>405</v>
+      </c>
+      <c r="P73" s="1">
+        <v>378</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>385</v>
+      </c>
+      <c r="R73" s="1">
+        <v>444</v>
+      </c>
+      <c r="S73" s="1">
+        <v>426</v>
+      </c>
+      <c r="T73" s="1">
+        <v>418</v>
+      </c>
+      <c r="U73" s="1">
+        <v>389</v>
+      </c>
+      <c r="V73" s="1">
+        <v>393</v>
+      </c>
+      <c r="W73" s="1">
+        <v>469</v>
+      </c>
+      <c r="X73" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z73" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74">
+        <v>2006</v>
+      </c>
+      <c r="C74" s="1">
+        <v>338</v>
+      </c>
+      <c r="D74" s="1">
+        <v>338</v>
+      </c>
+      <c r="E74" s="1">
+        <v>356</v>
+      </c>
+      <c r="F74" s="1">
+        <v>335</v>
+      </c>
+      <c r="G74" s="1">
+        <v>335</v>
+      </c>
+      <c r="H74" s="1">
+        <v>354</v>
+      </c>
+      <c r="I74" s="1">
+        <v>354</v>
+      </c>
+      <c r="J74" s="1">
+        <v>374</v>
+      </c>
+      <c r="K74" s="1">
+        <v>351</v>
+      </c>
+      <c r="L74" s="1">
+        <v>351</v>
+      </c>
+      <c r="M74" s="1">
+        <v>391</v>
+      </c>
+      <c r="N74" s="1">
+        <v>405</v>
+      </c>
+      <c r="O74" s="1">
+        <v>405</v>
+      </c>
+      <c r="P74" s="1">
+        <v>378</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>385</v>
+      </c>
+      <c r="R74" s="1">
+        <v>408</v>
+      </c>
+      <c r="S74" s="1">
+        <v>418</v>
+      </c>
+      <c r="T74" s="1">
+        <v>418</v>
+      </c>
+      <c r="U74" s="1">
+        <v>389</v>
+      </c>
+      <c r="V74" s="1">
+        <v>393</v>
+      </c>
+      <c r="W74" s="1">
+        <v>431</v>
+      </c>
+      <c r="X74" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z74" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA74" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75">
+        <v>2006</v>
+      </c>
+      <c r="C75" s="1">
+        <v>379</v>
+      </c>
+      <c r="D75" s="1">
+        <v>379</v>
+      </c>
+      <c r="E75" s="1">
+        <v>356</v>
+      </c>
+      <c r="F75" s="1">
+        <v>335</v>
+      </c>
+      <c r="G75" s="1">
+        <v>335</v>
+      </c>
+      <c r="H75" s="1">
+        <v>398</v>
+      </c>
+      <c r="I75" s="1">
+        <v>398</v>
+      </c>
+      <c r="J75" s="1">
+        <v>374</v>
+      </c>
+      <c r="K75" s="1">
+        <v>351</v>
+      </c>
+      <c r="L75" s="1">
+        <v>351</v>
+      </c>
+      <c r="M75" s="1">
+        <v>417</v>
+      </c>
+      <c r="N75" s="1">
+        <v>417</v>
+      </c>
+      <c r="O75" s="1">
+        <v>392</v>
+      </c>
+      <c r="P75" s="1">
+        <v>366</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>370</v>
+      </c>
+      <c r="R75" s="1">
+        <v>431</v>
+      </c>
+      <c r="S75" s="1">
+        <v>426</v>
+      </c>
+      <c r="T75" s="1">
+        <v>405</v>
+      </c>
+      <c r="U75" s="1">
+        <v>380</v>
+      </c>
+      <c r="V75" s="1">
+        <v>381</v>
+      </c>
+      <c r="W75" s="1">
+        <v>455</v>
+      </c>
+      <c r="X75" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y75" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z75" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA75" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76">
+        <v>2006</v>
+      </c>
+      <c r="C76" s="1">
+        <v>379</v>
+      </c>
+      <c r="D76" s="1">
+        <v>379</v>
+      </c>
+      <c r="E76" s="1">
+        <v>356</v>
+      </c>
+      <c r="F76" s="1">
+        <v>335</v>
+      </c>
+      <c r="G76" s="1">
+        <v>335</v>
+      </c>
+      <c r="H76" s="1">
+        <v>398</v>
+      </c>
+      <c r="I76" s="1">
+        <v>398</v>
+      </c>
+      <c r="J76" s="1">
+        <v>374</v>
+      </c>
+      <c r="K76" s="1">
+        <v>351</v>
+      </c>
+      <c r="L76" s="1">
+        <v>351</v>
+      </c>
+      <c r="M76" s="1">
+        <v>427</v>
+      </c>
+      <c r="N76" s="1">
+        <v>417</v>
+      </c>
+      <c r="O76" s="1">
+        <v>405</v>
+      </c>
+      <c r="P76" s="1">
+        <v>378</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>385</v>
+      </c>
+      <c r="R76" s="1">
+        <v>444</v>
+      </c>
+      <c r="S76" s="1">
+        <v>426</v>
+      </c>
+      <c r="T76" s="1">
+        <v>418</v>
+      </c>
+      <c r="U76" s="1">
+        <v>388</v>
+      </c>
+      <c r="V76" s="1">
+        <v>393</v>
+      </c>
+      <c r="W76" s="1">
+        <v>469</v>
+      </c>
+      <c r="X76" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y76" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z76" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA76" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77">
+        <v>2006</v>
+      </c>
+      <c r="C77" s="1">
+        <v>379</v>
+      </c>
+      <c r="D77" s="1">
+        <v>379</v>
+      </c>
+      <c r="E77" s="1">
+        <v>356</v>
+      </c>
+      <c r="F77" s="1">
+        <v>335</v>
+      </c>
+      <c r="G77" s="1">
+        <v>335</v>
+      </c>
+      <c r="H77" s="1">
+        <v>398</v>
+      </c>
+      <c r="I77" s="1">
+        <v>398</v>
+      </c>
+      <c r="J77" s="1">
+        <v>374</v>
+      </c>
+      <c r="K77" s="1">
+        <v>351</v>
+      </c>
+      <c r="L77" s="1">
+        <v>351</v>
+      </c>
+      <c r="M77" s="1">
+        <v>417</v>
+      </c>
+      <c r="N77" s="1">
+        <v>417</v>
+      </c>
+      <c r="O77" s="1">
+        <v>392</v>
+      </c>
+      <c r="P77" s="1">
+        <v>368</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>372</v>
+      </c>
+      <c r="R77" s="1">
+        <v>431</v>
+      </c>
+      <c r="S77" s="1">
+        <v>426</v>
+      </c>
+      <c r="T77" s="1">
+        <v>405</v>
+      </c>
+      <c r="U77" s="1">
+        <v>379</v>
+      </c>
+      <c r="V77" s="1">
+        <v>381</v>
+      </c>
+      <c r="W77" s="1">
+        <v>455</v>
+      </c>
+      <c r="X77" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y77" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z77" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA77" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78">
+        <v>2006</v>
+      </c>
+      <c r="C78" s="1">
+        <v>379</v>
+      </c>
+      <c r="D78" s="1">
+        <v>379</v>
+      </c>
+      <c r="E78" s="1">
+        <v>356</v>
+      </c>
+      <c r="F78" s="1">
+        <v>335</v>
+      </c>
+      <c r="G78" s="1">
+        <v>335</v>
+      </c>
+      <c r="H78" s="1">
+        <v>398</v>
+      </c>
+      <c r="I78" s="1">
+        <v>398</v>
+      </c>
+      <c r="J78" s="1">
+        <v>374</v>
+      </c>
+      <c r="K78" s="1">
+        <v>351</v>
+      </c>
+      <c r="L78" s="1">
+        <v>351</v>
+      </c>
+      <c r="M78" s="1">
+        <v>427</v>
+      </c>
+      <c r="N78" s="1">
+        <v>417</v>
+      </c>
+      <c r="O78" s="1">
+        <v>405</v>
+      </c>
+      <c r="P78" s="1">
+        <v>378</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>385</v>
+      </c>
+      <c r="R78" s="1">
+        <v>444</v>
+      </c>
+      <c r="S78" s="1">
+        <v>426</v>
+      </c>
+      <c r="T78" s="1">
+        <v>418</v>
+      </c>
+      <c r="U78" s="1">
+        <v>388</v>
+      </c>
+      <c r="V78" s="1">
+        <v>393</v>
+      </c>
+      <c r="W78" s="1">
+        <v>469</v>
+      </c>
+      <c r="X78" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y78" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z78" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA78" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79">
+        <v>2006</v>
+      </c>
+      <c r="C79" s="1">
+        <v>379</v>
+      </c>
+      <c r="D79" s="1">
+        <v>379</v>
+      </c>
+      <c r="E79" s="1">
+        <v>356</v>
+      </c>
+      <c r="F79" s="1">
+        <v>335</v>
+      </c>
+      <c r="G79" s="1">
+        <v>335</v>
+      </c>
+      <c r="H79" s="1">
+        <v>398</v>
+      </c>
+      <c r="I79" s="1">
+        <v>398</v>
+      </c>
+      <c r="J79" s="1">
+        <v>374</v>
+      </c>
+      <c r="K79" s="1">
+        <v>351</v>
+      </c>
+      <c r="L79" s="1">
+        <v>351</v>
+      </c>
+      <c r="M79" s="1">
+        <v>417</v>
+      </c>
+      <c r="N79" s="1">
+        <v>417</v>
+      </c>
+      <c r="O79" s="1">
+        <v>392</v>
+      </c>
+      <c r="P79" s="1">
+        <v>366</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>370</v>
+      </c>
+      <c r="R79" s="1">
+        <v>431</v>
+      </c>
+      <c r="S79" s="1">
+        <v>426</v>
+      </c>
+      <c r="T79" s="1">
+        <v>405</v>
+      </c>
+      <c r="U79" s="1">
+        <v>379</v>
+      </c>
+      <c r="V79" s="1">
+        <v>381</v>
+      </c>
+      <c r="W79" s="1">
+        <v>455</v>
+      </c>
+      <c r="X79" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y79" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z79" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA79" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80">
+        <v>2006</v>
+      </c>
+      <c r="C80" s="1">
+        <v>379</v>
+      </c>
+      <c r="D80" s="1">
+        <v>379</v>
+      </c>
+      <c r="E80" s="1">
+        <v>356</v>
+      </c>
+      <c r="F80" s="1">
+        <v>335</v>
+      </c>
+      <c r="G80" s="1">
+        <v>335</v>
+      </c>
+      <c r="H80" s="1">
+        <v>398</v>
+      </c>
+      <c r="I80" s="1">
+        <v>398</v>
+      </c>
+      <c r="J80" s="1">
+        <v>374</v>
+      </c>
+      <c r="K80" s="1">
+        <v>351</v>
+      </c>
+      <c r="L80" s="1">
+        <v>351</v>
+      </c>
+      <c r="M80" s="1">
+        <v>471</v>
+      </c>
+      <c r="N80" s="1">
+        <v>435</v>
+      </c>
+      <c r="O80" s="1">
+        <v>435</v>
+      </c>
+      <c r="P80" s="1">
+        <v>408</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>404</v>
+      </c>
+      <c r="R80" s="1">
+        <v>488</v>
+      </c>
+      <c r="S80" s="1">
+        <v>448</v>
+      </c>
+      <c r="T80" s="1">
+        <v>448</v>
+      </c>
+      <c r="U80" s="1">
+        <v>418</v>
+      </c>
+      <c r="V80" s="1">
+        <v>411</v>
+      </c>
+      <c r="W80" s="1">
+        <v>512</v>
+      </c>
+      <c r="X80" s="1">
+        <v>466</v>
+      </c>
+      <c r="Y80" s="1">
+        <v>466</v>
+      </c>
+      <c r="Z80" s="1">
+        <v>433</v>
+      </c>
+      <c r="AA80" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81">
+        <v>2006</v>
+      </c>
+      <c r="C81" s="1">
+        <v>379</v>
+      </c>
+      <c r="D81" s="1">
+        <v>379</v>
+      </c>
+      <c r="E81" s="1">
+        <v>356</v>
+      </c>
+      <c r="F81" s="1">
+        <v>335</v>
+      </c>
+      <c r="G81" s="1">
+        <v>335</v>
+      </c>
+      <c r="H81" s="1">
+        <v>398</v>
+      </c>
+      <c r="I81" s="1">
+        <v>398</v>
+      </c>
+      <c r="J81" s="1">
+        <v>374</v>
+      </c>
+      <c r="K81" s="1">
+        <v>351</v>
+      </c>
+      <c r="L81" s="1">
+        <v>351</v>
+      </c>
+      <c r="M81" s="1">
+        <v>417</v>
+      </c>
+      <c r="N81" s="1">
+        <v>417</v>
+      </c>
+      <c r="O81" s="1">
+        <v>392</v>
+      </c>
+      <c r="P81" s="1">
+        <v>369</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>373</v>
+      </c>
+      <c r="R81" s="1">
+        <v>431</v>
+      </c>
+      <c r="S81" s="1">
+        <v>426</v>
+      </c>
+      <c r="T81" s="1">
+        <v>405</v>
+      </c>
+      <c r="U81" s="1">
+        <v>379</v>
+      </c>
+      <c r="V81" s="1">
+        <v>381</v>
+      </c>
+      <c r="W81" s="1">
+        <v>455</v>
+      </c>
+      <c r="X81" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y81" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z81" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA81" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82">
+        <v>2006</v>
+      </c>
+      <c r="C82" s="1">
+        <v>379</v>
+      </c>
+      <c r="D82" s="1">
+        <v>379</v>
+      </c>
+      <c r="E82" s="1">
+        <v>356</v>
+      </c>
+      <c r="F82" s="1">
+        <v>335</v>
+      </c>
+      <c r="G82" s="1">
+        <v>335</v>
+      </c>
+      <c r="H82" s="1">
+        <v>398</v>
+      </c>
+      <c r="I82" s="1">
+        <v>398</v>
+      </c>
+      <c r="J82" s="1">
+        <v>374</v>
+      </c>
+      <c r="K82" s="1">
+        <v>351</v>
+      </c>
+      <c r="L82" s="1">
+        <v>351</v>
+      </c>
+      <c r="M82" s="1">
+        <v>417</v>
+      </c>
+      <c r="N82" s="1">
+        <v>417</v>
+      </c>
+      <c r="O82" s="1">
+        <v>392</v>
+      </c>
+      <c r="P82" s="1">
+        <v>366</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>370</v>
+      </c>
+      <c r="R82" s="1">
+        <v>431</v>
+      </c>
+      <c r="S82" s="1">
+        <v>426</v>
+      </c>
+      <c r="T82" s="1">
+        <v>405</v>
+      </c>
+      <c r="U82" s="1">
+        <v>379</v>
+      </c>
+      <c r="V82" s="1">
+        <v>381</v>
+      </c>
+      <c r="W82" s="1">
+        <v>455</v>
+      </c>
+      <c r="X82" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y82" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z82" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA82" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83">
+        <v>2006</v>
+      </c>
+      <c r="C83" s="1">
+        <v>446</v>
+      </c>
+      <c r="D83" s="1">
+        <v>446</v>
+      </c>
+      <c r="E83" s="1">
+        <v>423</v>
+      </c>
+      <c r="F83" s="1">
+        <v>404</v>
+      </c>
+      <c r="G83" s="1">
+        <v>404</v>
+      </c>
+      <c r="H83" s="1">
+        <v>469</v>
+      </c>
+      <c r="I83" s="1">
+        <v>469</v>
+      </c>
+      <c r="J83" s="1">
+        <v>445</v>
+      </c>
+      <c r="K83" s="1">
+        <v>424</v>
+      </c>
+      <c r="L83" s="1">
+        <v>424</v>
+      </c>
+      <c r="M83" s="1">
+        <v>509</v>
+      </c>
+      <c r="N83" s="1">
+        <v>490</v>
+      </c>
+      <c r="O83" s="1">
+        <v>490</v>
+      </c>
+      <c r="P83" s="1">
+        <v>468</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>477</v>
+      </c>
+      <c r="R83" s="1">
+        <v>527</v>
+      </c>
+      <c r="S83" s="1">
+        <v>504</v>
+      </c>
+      <c r="T83" s="1">
+        <v>504</v>
+      </c>
+      <c r="U83" s="1">
+        <v>480</v>
+      </c>
+      <c r="V83" s="1">
+        <v>487</v>
+      </c>
+      <c r="W83" s="1">
+        <v>549</v>
+      </c>
+      <c r="X83" s="1">
+        <v>522</v>
+      </c>
+      <c r="Y83" s="1">
+        <v>522</v>
+      </c>
+      <c r="Z83" s="1">
+        <v>496</v>
+      </c>
+      <c r="AA83" s="1">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84">
+        <v>2006</v>
+      </c>
+      <c r="C84" s="1">
+        <v>410</v>
+      </c>
+      <c r="D84" s="1">
+        <v>410</v>
+      </c>
+      <c r="E84" s="1">
+        <v>356</v>
+      </c>
+      <c r="F84" s="1">
+        <v>335</v>
+      </c>
+      <c r="G84" s="1">
+        <v>335</v>
+      </c>
+      <c r="H84" s="1">
+        <v>421</v>
+      </c>
+      <c r="I84" s="1">
+        <v>421</v>
+      </c>
+      <c r="J84" s="1">
+        <v>374</v>
+      </c>
+      <c r="K84" s="1">
+        <v>351</v>
+      </c>
+      <c r="L84" s="1">
+        <v>351</v>
+      </c>
+      <c r="M84" s="1">
+        <v>451</v>
+      </c>
+      <c r="N84" s="1">
+        <v>447</v>
+      </c>
+      <c r="O84" s="1">
+        <v>405</v>
+      </c>
+      <c r="P84" s="1">
+        <v>374</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>382</v>
+      </c>
+      <c r="R84" s="1">
+        <v>472</v>
+      </c>
+      <c r="S84" s="1">
+        <v>461</v>
+      </c>
+      <c r="T84" s="1">
+        <v>418</v>
+      </c>
+      <c r="U84" s="1">
+        <v>388</v>
+      </c>
+      <c r="V84" s="1">
+        <v>393</v>
+      </c>
+      <c r="W84" s="1">
+        <v>498</v>
+      </c>
+      <c r="X84" s="1">
+        <v>472</v>
+      </c>
+      <c r="Y84" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z84" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA84" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>110</v>
+      </c>
+      <c r="B85">
+        <v>2006</v>
+      </c>
+      <c r="C85" s="1">
+        <v>410</v>
+      </c>
+      <c r="D85" s="1">
+        <v>410</v>
+      </c>
+      <c r="E85" s="1">
+        <v>356</v>
+      </c>
+      <c r="F85" s="1">
+        <v>335</v>
+      </c>
+      <c r="G85" s="1">
+        <v>335</v>
+      </c>
+      <c r="H85" s="1">
+        <v>424</v>
+      </c>
+      <c r="I85" s="1">
+        <v>424</v>
+      </c>
+      <c r="J85" s="1">
+        <v>374</v>
+      </c>
+      <c r="K85" s="1">
+        <v>351</v>
+      </c>
+      <c r="L85" s="1">
+        <v>351</v>
+      </c>
+      <c r="M85" s="1">
+        <v>447</v>
+      </c>
+      <c r="N85" s="1">
+        <v>447</v>
+      </c>
+      <c r="O85" s="1">
+        <v>392</v>
+      </c>
+      <c r="P85" s="1">
+        <v>366</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>370</v>
+      </c>
+      <c r="R85" s="1">
+        <v>461</v>
+      </c>
+      <c r="S85" s="1">
+        <v>461</v>
+      </c>
+      <c r="T85" s="1">
+        <v>405</v>
+      </c>
+      <c r="U85" s="1">
+        <v>379</v>
+      </c>
+      <c r="V85" s="1">
+        <v>381</v>
+      </c>
+      <c r="W85" s="1">
+        <v>484</v>
+      </c>
+      <c r="X85" s="1">
+        <v>472</v>
+      </c>
+      <c r="Y85" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z85" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA85" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86">
+        <v>2006</v>
+      </c>
+      <c r="C86" s="1">
+        <v>379</v>
+      </c>
+      <c r="D86" s="1">
+        <v>379</v>
+      </c>
+      <c r="E86" s="1">
+        <v>356</v>
+      </c>
+      <c r="F86" s="1">
+        <v>335</v>
+      </c>
+      <c r="G86" s="1">
+        <v>335</v>
+      </c>
+      <c r="H86" s="1">
+        <v>398</v>
+      </c>
+      <c r="I86" s="1">
+        <v>398</v>
+      </c>
+      <c r="J86" s="1">
+        <v>374</v>
+      </c>
+      <c r="K86" s="1">
+        <v>351</v>
+      </c>
+      <c r="L86" s="1">
+        <v>351</v>
+      </c>
+      <c r="M86" s="1">
+        <v>417</v>
+      </c>
+      <c r="N86" s="1">
+        <v>417</v>
+      </c>
+      <c r="O86" s="1">
+        <v>392</v>
+      </c>
+      <c r="P86" s="1">
+        <v>369</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>373</v>
+      </c>
+      <c r="R86" s="1">
+        <v>431</v>
+      </c>
+      <c r="S86" s="1">
+        <v>426</v>
+      </c>
+      <c r="T86" s="1">
+        <v>405</v>
+      </c>
+      <c r="U86" s="1">
+        <v>379</v>
+      </c>
+      <c r="V86" s="1">
+        <v>381</v>
+      </c>
+      <c r="W86" s="1">
+        <v>455</v>
+      </c>
+      <c r="X86" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y86" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z86" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA86" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87">
+        <v>2006</v>
+      </c>
+      <c r="C87" s="1">
+        <v>379</v>
+      </c>
+      <c r="D87" s="1">
+        <v>379</v>
+      </c>
+      <c r="E87" s="1">
+        <v>356</v>
+      </c>
+      <c r="F87" s="1">
+        <v>356</v>
+      </c>
+      <c r="G87" s="1">
+        <v>356</v>
+      </c>
+      <c r="H87" s="1">
+        <v>398</v>
+      </c>
+      <c r="I87" s="1">
+        <v>398</v>
+      </c>
+      <c r="J87" s="1">
+        <v>374</v>
+      </c>
+      <c r="K87" s="1">
+        <v>363</v>
+      </c>
+      <c r="L87" s="1">
+        <v>363</v>
+      </c>
+      <c r="M87" s="1">
+        <v>427</v>
+      </c>
+      <c r="N87" s="1">
+        <v>417</v>
+      </c>
+      <c r="O87" s="1">
+        <v>405</v>
+      </c>
+      <c r="P87" s="1">
+        <v>394</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>402</v>
+      </c>
+      <c r="R87" s="1">
+        <v>444</v>
+      </c>
+      <c r="S87" s="1">
+        <v>426</v>
+      </c>
+      <c r="T87" s="1">
+        <v>418</v>
+      </c>
+      <c r="U87" s="1">
+        <v>408</v>
+      </c>
+      <c r="V87" s="1">
+        <v>413</v>
+      </c>
+      <c r="W87" s="1">
+        <v>469</v>
+      </c>
+      <c r="X87" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y87" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z87" s="1">
+        <v>415</v>
+      </c>
+      <c r="AA87" s="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88">
+        <v>2006</v>
+      </c>
+      <c r="C88" s="1">
+        <v>402</v>
+      </c>
+      <c r="D88" s="1">
+        <v>402</v>
+      </c>
+      <c r="E88" s="1">
+        <v>402</v>
+      </c>
+      <c r="F88" s="1">
+        <v>379</v>
+      </c>
+      <c r="G88" s="1">
+        <v>379</v>
+      </c>
+      <c r="H88" s="1">
+        <v>422</v>
+      </c>
+      <c r="I88" s="1">
+        <v>422</v>
+      </c>
+      <c r="J88" s="1">
+        <v>422</v>
+      </c>
+      <c r="K88" s="1">
+        <v>398</v>
+      </c>
+      <c r="L88" s="1">
+        <v>398</v>
+      </c>
+      <c r="M88" s="1">
+        <v>491</v>
+      </c>
+      <c r="N88" s="1">
+        <v>475</v>
+      </c>
+      <c r="O88" s="1">
+        <v>475</v>
+      </c>
+      <c r="P88" s="1">
+        <v>446</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>442</v>
+      </c>
+      <c r="R88" s="1">
+        <v>509</v>
+      </c>
+      <c r="S88" s="1">
+        <v>489</v>
+      </c>
+      <c r="T88" s="1">
+        <v>489</v>
+      </c>
+      <c r="U88" s="1">
+        <v>458</v>
+      </c>
+      <c r="V88" s="1">
+        <v>451</v>
+      </c>
+      <c r="W88" s="1">
+        <v>533</v>
+      </c>
+      <c r="X88" s="1">
+        <v>500</v>
+      </c>
+      <c r="Y88" s="1">
+        <v>500</v>
+      </c>
+      <c r="Z88" s="1">
+        <v>466</v>
+      </c>
+      <c r="AA88" s="1">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89">
+        <v>2006</v>
+      </c>
+      <c r="C89" s="1">
+        <v>379</v>
+      </c>
+      <c r="D89" s="1">
+        <v>379</v>
+      </c>
+      <c r="E89" s="1">
+        <v>356</v>
+      </c>
+      <c r="F89" s="1">
+        <v>335</v>
+      </c>
+      <c r="G89" s="1">
+        <v>335</v>
+      </c>
+      <c r="H89" s="1">
+        <v>398</v>
+      </c>
+      <c r="I89" s="1">
+        <v>398</v>
+      </c>
+      <c r="J89" s="1">
+        <v>374</v>
+      </c>
+      <c r="K89" s="1">
+        <v>351</v>
+      </c>
+      <c r="L89" s="1">
+        <v>351</v>
+      </c>
+      <c r="M89" s="1">
+        <v>417</v>
+      </c>
+      <c r="N89" s="1">
+        <v>417</v>
+      </c>
+      <c r="O89" s="1">
+        <v>392</v>
+      </c>
+      <c r="P89" s="1">
+        <v>366</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>370</v>
+      </c>
+      <c r="R89" s="1">
+        <v>431</v>
+      </c>
+      <c r="S89" s="1">
+        <v>426</v>
+      </c>
+      <c r="T89" s="1">
+        <v>405</v>
+      </c>
+      <c r="U89" s="1">
+        <v>379</v>
+      </c>
+      <c r="V89" s="1">
+        <v>381</v>
+      </c>
+      <c r="W89" s="1">
+        <v>455</v>
+      </c>
+      <c r="X89" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y89" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z89" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA89" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90">
+        <v>2006</v>
+      </c>
+      <c r="C90" s="1">
+        <v>338</v>
+      </c>
+      <c r="D90" s="1">
+        <v>338</v>
+      </c>
+      <c r="E90" s="1">
+        <v>356</v>
+      </c>
+      <c r="F90" s="1">
+        <v>313</v>
+      </c>
+      <c r="G90" s="1">
+        <v>313</v>
+      </c>
+      <c r="H90" s="1">
+        <v>354</v>
+      </c>
+      <c r="I90" s="1">
+        <v>354</v>
+      </c>
+      <c r="J90" s="1">
+        <v>374</v>
+      </c>
+      <c r="K90" s="1">
+        <v>329</v>
+      </c>
+      <c r="L90" s="1">
+        <v>329</v>
+      </c>
+      <c r="M90" s="1">
+        <v>391</v>
+      </c>
+      <c r="N90" s="1">
+        <v>400</v>
+      </c>
+      <c r="O90" s="1">
+        <v>400</v>
+      </c>
+      <c r="P90" s="1">
+        <v>358</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>365</v>
+      </c>
+      <c r="R90" s="1">
+        <v>408</v>
+      </c>
+      <c r="S90" s="1">
+        <v>413</v>
+      </c>
+      <c r="T90" s="1">
+        <v>413</v>
+      </c>
+      <c r="U90" s="1">
+        <v>369</v>
+      </c>
+      <c r="V90" s="1">
+        <v>373</v>
+      </c>
+      <c r="W90" s="1">
+        <v>431</v>
+      </c>
+      <c r="X90" s="1">
+        <v>431</v>
+      </c>
+      <c r="Y90" s="1">
+        <v>431</v>
+      </c>
+      <c r="Z90" s="1">
+        <v>383</v>
+      </c>
+      <c r="AA90" s="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91">
+        <v>2006</v>
+      </c>
+      <c r="C91" s="1">
+        <v>550</v>
+      </c>
+      <c r="D91" s="1">
+        <v>550</v>
+      </c>
+      <c r="E91" s="1">
+        <v>513</v>
+      </c>
+      <c r="F91" s="1">
+        <v>513</v>
+      </c>
+      <c r="G91" s="1">
+        <v>513</v>
+      </c>
+      <c r="H91" s="1">
+        <v>567</v>
+      </c>
+      <c r="I91" s="1">
+        <v>567</v>
+      </c>
+      <c r="J91" s="1">
+        <v>523</v>
+      </c>
+      <c r="K91" s="1">
+        <v>523</v>
+      </c>
+      <c r="L91" s="1">
+        <v>523</v>
+      </c>
+      <c r="M91" s="1">
+        <v>627</v>
+      </c>
+      <c r="N91" s="1">
+        <v>612</v>
+      </c>
+      <c r="O91" s="1">
+        <v>572</v>
+      </c>
+      <c r="P91" s="1">
+        <v>564</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>564</v>
+      </c>
+      <c r="R91" s="1">
+        <v>648</v>
+      </c>
+      <c r="S91" s="1">
+        <v>626</v>
+      </c>
+      <c r="T91" s="1">
+        <v>589</v>
+      </c>
+      <c r="U91" s="1">
+        <v>579</v>
+      </c>
+      <c r="V91" s="1">
+        <v>577</v>
+      </c>
+      <c r="W91" s="1">
+        <v>675</v>
+      </c>
+      <c r="X91" s="1">
+        <v>640</v>
+      </c>
+      <c r="Y91" s="1">
+        <v>610</v>
+      </c>
+      <c r="Z91" s="1">
+        <v>597</v>
+      </c>
+      <c r="AA91" s="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92">
+        <v>2006</v>
+      </c>
+      <c r="C92" s="1">
+        <v>379</v>
+      </c>
+      <c r="D92" s="1">
+        <v>379</v>
+      </c>
+      <c r="E92" s="1">
+        <v>356</v>
+      </c>
+      <c r="F92" s="1">
+        <v>335</v>
+      </c>
+      <c r="G92" s="1">
+        <v>335</v>
+      </c>
+      <c r="H92" s="1">
+        <v>398</v>
+      </c>
+      <c r="I92" s="1">
+        <v>398</v>
+      </c>
+      <c r="J92" s="1">
+        <v>374</v>
+      </c>
+      <c r="K92" s="1">
+        <v>351</v>
+      </c>
+      <c r="L92" s="1">
+        <v>351</v>
+      </c>
+      <c r="M92" s="1">
+        <v>417</v>
+      </c>
+      <c r="N92" s="1">
+        <v>417</v>
+      </c>
+      <c r="O92" s="1">
+        <v>392</v>
+      </c>
+      <c r="P92" s="1">
+        <v>366</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>370</v>
+      </c>
+      <c r="R92" s="1">
+        <v>431</v>
+      </c>
+      <c r="S92" s="1">
+        <v>426</v>
+      </c>
+      <c r="T92" s="1">
+        <v>405</v>
+      </c>
+      <c r="U92" s="1">
+        <v>379</v>
+      </c>
+      <c r="V92" s="1">
+        <v>381</v>
+      </c>
+      <c r="W92" s="1">
+        <v>455</v>
+      </c>
+      <c r="X92" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y92" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z92" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA92" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>118</v>
+      </c>
+      <c r="B93">
+        <v>2006</v>
+      </c>
+      <c r="C93" s="1">
+        <v>443</v>
+      </c>
+      <c r="D93" s="1">
+        <v>443</v>
+      </c>
+      <c r="E93" s="1">
+        <v>356</v>
+      </c>
+      <c r="F93" s="1">
+        <v>335</v>
+      </c>
+      <c r="G93" s="1">
+        <v>335</v>
+      </c>
+      <c r="H93" s="1">
+        <v>465</v>
+      </c>
+      <c r="I93" s="1">
+        <v>465</v>
+      </c>
+      <c r="J93" s="1">
+        <v>374</v>
+      </c>
+      <c r="K93" s="1">
+        <v>351</v>
+      </c>
+      <c r="L93" s="1">
+        <v>351</v>
+      </c>
+      <c r="M93" s="1">
+        <v>487</v>
+      </c>
+      <c r="N93" s="1">
+        <v>487</v>
+      </c>
+      <c r="O93" s="1">
+        <v>405</v>
+      </c>
+      <c r="P93" s="1">
+        <v>378</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>385</v>
+      </c>
+      <c r="R93" s="1">
+        <v>503</v>
+      </c>
+      <c r="S93" s="1">
+        <v>499</v>
+      </c>
+      <c r="T93" s="1">
+        <v>418</v>
+      </c>
+      <c r="U93" s="1">
+        <v>388</v>
+      </c>
+      <c r="V93" s="1">
+        <v>393</v>
+      </c>
+      <c r="W93" s="1">
+        <v>539</v>
+      </c>
+      <c r="X93" s="1">
+        <v>524</v>
+      </c>
+      <c r="Y93" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z93" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA93" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94">
+        <v>2006</v>
+      </c>
+      <c r="C94" s="1">
+        <v>379</v>
+      </c>
+      <c r="D94" s="1">
+        <v>379</v>
+      </c>
+      <c r="E94" s="1">
+        <v>356</v>
+      </c>
+      <c r="F94" s="1">
+        <v>338</v>
+      </c>
+      <c r="G94" s="1">
+        <v>338</v>
+      </c>
+      <c r="H94" s="1">
+        <v>398</v>
+      </c>
+      <c r="I94" s="1">
+        <v>398</v>
+      </c>
+      <c r="J94" s="1">
+        <v>374</v>
+      </c>
+      <c r="K94" s="1">
+        <v>354</v>
+      </c>
+      <c r="L94" s="1">
+        <v>354</v>
+      </c>
+      <c r="M94" s="1">
+        <v>427</v>
+      </c>
+      <c r="N94" s="1">
+        <v>417</v>
+      </c>
+      <c r="O94" s="1">
+        <v>405</v>
+      </c>
+      <c r="P94" s="1">
+        <v>374</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>382</v>
+      </c>
+      <c r="R94" s="1">
+        <v>444</v>
+      </c>
+      <c r="S94" s="1">
+        <v>426</v>
+      </c>
+      <c r="T94" s="1">
+        <v>418</v>
+      </c>
+      <c r="U94" s="1">
+        <v>388</v>
+      </c>
+      <c r="V94" s="1">
+        <v>393</v>
+      </c>
+      <c r="W94" s="1">
+        <v>469</v>
+      </c>
+      <c r="X94" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y94" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z94" s="1">
+        <v>405</v>
+      </c>
+      <c r="AA94" s="1">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95">
+        <v>2006</v>
+      </c>
+      <c r="C95" s="1">
+        <v>379</v>
+      </c>
+      <c r="D95" s="1">
+        <v>379</v>
+      </c>
+      <c r="E95" s="1">
+        <v>356</v>
+      </c>
+      <c r="F95" s="1">
+        <v>335</v>
+      </c>
+      <c r="G95" s="1">
+        <v>335</v>
+      </c>
+      <c r="H95" s="1">
+        <v>398</v>
+      </c>
+      <c r="I95" s="1">
+        <v>398</v>
+      </c>
+      <c r="J95" s="1">
+        <v>374</v>
+      </c>
+      <c r="K95" s="1">
+        <v>351</v>
+      </c>
+      <c r="L95" s="1">
+        <v>351</v>
+      </c>
+      <c r="M95" s="1">
+        <v>417</v>
+      </c>
+      <c r="N95" s="1">
+        <v>417</v>
+      </c>
+      <c r="O95" s="1">
+        <v>392</v>
+      </c>
+      <c r="P95" s="1">
+        <v>366</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>370</v>
+      </c>
+      <c r="R95" s="1">
+        <v>431</v>
+      </c>
+      <c r="S95" s="1">
+        <v>426</v>
+      </c>
+      <c r="T95" s="1">
+        <v>405</v>
+      </c>
+      <c r="U95" s="1">
+        <v>379</v>
+      </c>
+      <c r="V95" s="1">
+        <v>381</v>
+      </c>
+      <c r="W95" s="1">
+        <v>455</v>
+      </c>
+      <c r="X95" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y95" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z95" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA95" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96">
+        <v>2006</v>
+      </c>
+      <c r="C96" s="1">
+        <v>379</v>
+      </c>
+      <c r="D96" s="1">
+        <v>379</v>
+      </c>
+      <c r="E96" s="1">
+        <v>356</v>
+      </c>
+      <c r="F96" s="1">
+        <v>339</v>
+      </c>
+      <c r="G96" s="1">
+        <v>339</v>
+      </c>
+      <c r="H96" s="1">
+        <v>398</v>
+      </c>
+      <c r="I96" s="1">
+        <v>398</v>
+      </c>
+      <c r="J96" s="1">
+        <v>374</v>
+      </c>
+      <c r="K96" s="1">
+        <v>355</v>
+      </c>
+      <c r="L96" s="1">
+        <v>355</v>
+      </c>
+      <c r="M96" s="1">
+        <v>427</v>
+      </c>
+      <c r="N96" s="1">
+        <v>417</v>
+      </c>
+      <c r="O96" s="1">
+        <v>405</v>
+      </c>
+      <c r="P96" s="1">
+        <v>374</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>382</v>
+      </c>
+      <c r="R96" s="1">
+        <v>444</v>
+      </c>
+      <c r="S96" s="1">
+        <v>426</v>
+      </c>
+      <c r="T96" s="1">
+        <v>418</v>
+      </c>
+      <c r="U96" s="1">
+        <v>388</v>
+      </c>
+      <c r="V96" s="1">
+        <v>393</v>
+      </c>
+      <c r="W96" s="1">
+        <v>469</v>
+      </c>
+      <c r="X96" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y96" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z96" s="1">
+        <v>406</v>
+      </c>
+      <c r="AA96" s="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97">
+        <v>2006</v>
+      </c>
+      <c r="C97" s="1">
+        <v>356</v>
+      </c>
+      <c r="D97" s="1">
+        <v>356</v>
+      </c>
+      <c r="E97" s="1">
+        <v>356</v>
+      </c>
+      <c r="F97" s="1">
+        <v>335</v>
+      </c>
+      <c r="G97" s="1">
+        <v>335</v>
+      </c>
+      <c r="H97" s="1">
+        <v>374</v>
+      </c>
+      <c r="I97" s="1">
+        <v>374</v>
+      </c>
+      <c r="J97" s="1">
+        <v>374</v>
+      </c>
+      <c r="K97" s="1">
+        <v>351</v>
+      </c>
+      <c r="L97" s="1">
+        <v>351</v>
+      </c>
+      <c r="M97" s="1">
+        <v>407</v>
+      </c>
+      <c r="N97" s="1">
+        <v>405</v>
+      </c>
+      <c r="O97" s="1">
+        <v>405</v>
+      </c>
+      <c r="P97" s="1">
+        <v>378</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>385</v>
+      </c>
+      <c r="R97" s="1">
+        <v>424</v>
+      </c>
+      <c r="S97" s="1">
+        <v>418</v>
+      </c>
+      <c r="T97" s="1">
+        <v>418</v>
+      </c>
+      <c r="U97" s="1">
+        <v>389</v>
+      </c>
+      <c r="V97" s="1">
+        <v>393</v>
+      </c>
+      <c r="W97" s="1">
+        <v>448</v>
+      </c>
+      <c r="X97" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y97" s="1">
+        <v>436</v>
+      </c>
+      <c r="Z97" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA97" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>123</v>
+      </c>
+      <c r="B98">
+        <v>2006</v>
+      </c>
+      <c r="C98" s="1">
+        <v>379</v>
+      </c>
+      <c r="D98" s="1">
+        <v>379</v>
+      </c>
+      <c r="E98" s="1">
+        <v>379</v>
+      </c>
+      <c r="F98" s="1">
+        <v>335</v>
+      </c>
+      <c r="G98" s="1">
+        <v>335</v>
+      </c>
+      <c r="H98" s="1">
+        <v>398</v>
+      </c>
+      <c r="I98" s="1">
+        <v>398</v>
+      </c>
+      <c r="J98" s="1">
+        <v>398</v>
+      </c>
+      <c r="K98" s="1">
+        <v>351</v>
+      </c>
+      <c r="L98" s="1">
+        <v>351</v>
+      </c>
+      <c r="M98" s="1">
+        <v>427</v>
+      </c>
+      <c r="N98" s="1">
+        <v>425</v>
+      </c>
+      <c r="O98" s="1">
+        <v>425</v>
+      </c>
+      <c r="P98" s="1">
+        <v>378</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>385</v>
+      </c>
+      <c r="R98" s="1">
+        <v>444</v>
+      </c>
+      <c r="S98" s="1">
+        <v>438</v>
+      </c>
+      <c r="T98" s="1">
+        <v>438</v>
+      </c>
+      <c r="U98" s="1">
+        <v>389</v>
+      </c>
+      <c r="V98" s="1">
+        <v>393</v>
+      </c>
+      <c r="W98" s="1">
+        <v>469</v>
+      </c>
+      <c r="X98" s="1">
+        <v>457</v>
+      </c>
+      <c r="Y98" s="1">
+        <v>457</v>
+      </c>
+      <c r="Z98" s="1">
+        <v>402</v>
+      </c>
+      <c r="AA98" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99">
+        <v>2006</v>
+      </c>
+      <c r="C99" s="1">
+        <v>379</v>
+      </c>
+      <c r="D99" s="1">
+        <v>379</v>
+      </c>
+      <c r="E99" s="1">
+        <v>356</v>
+      </c>
+      <c r="F99" s="1">
+        <v>335</v>
+      </c>
+      <c r="G99" s="1">
+        <v>335</v>
+      </c>
+      <c r="H99" s="1">
+        <v>398</v>
+      </c>
+      <c r="I99" s="1">
+        <v>398</v>
+      </c>
+      <c r="J99" s="1">
+        <v>374</v>
+      </c>
+      <c r="K99" s="1">
+        <v>351</v>
+      </c>
+      <c r="L99" s="1">
+        <v>351</v>
+      </c>
+      <c r="M99" s="1">
+        <v>417</v>
+      </c>
+      <c r="N99" s="1">
+        <v>417</v>
+      </c>
+      <c r="O99" s="1">
+        <v>392</v>
+      </c>
+      <c r="P99" s="1">
+        <v>368</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>372</v>
+      </c>
+      <c r="R99" s="1">
+        <v>431</v>
+      </c>
+      <c r="S99" s="1">
+        <v>426</v>
+      </c>
+      <c r="T99" s="1">
+        <v>405</v>
+      </c>
+      <c r="U99" s="1">
+        <v>379</v>
+      </c>
+      <c r="V99" s="1">
+        <v>381</v>
+      </c>
+      <c r="W99" s="1">
+        <v>455</v>
+      </c>
+      <c r="X99" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y99" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z99" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA99" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100">
+        <v>2006</v>
+      </c>
+      <c r="C100" s="1">
+        <v>379</v>
+      </c>
+      <c r="D100" s="1">
+        <v>379</v>
+      </c>
+      <c r="E100" s="1">
+        <v>356</v>
+      </c>
+      <c r="F100" s="1">
+        <v>335</v>
+      </c>
+      <c r="G100" s="1">
+        <v>335</v>
+      </c>
+      <c r="H100" s="1">
+        <v>398</v>
+      </c>
+      <c r="I100" s="1">
+        <v>398</v>
+      </c>
+      <c r="J100" s="1">
+        <v>374</v>
+      </c>
+      <c r="K100" s="1">
+        <v>351</v>
+      </c>
+      <c r="L100" s="1">
+        <v>351</v>
+      </c>
+      <c r="M100" s="1">
+        <v>417</v>
+      </c>
+      <c r="N100" s="1">
+        <v>417</v>
+      </c>
+      <c r="O100" s="1">
+        <v>392</v>
+      </c>
+      <c r="P100" s="1">
+        <v>366</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>370</v>
+      </c>
+      <c r="R100" s="1">
+        <v>431</v>
+      </c>
+      <c r="S100" s="1">
+        <v>426</v>
+      </c>
+      <c r="T100" s="1">
+        <v>405</v>
+      </c>
+      <c r="U100" s="1">
+        <v>379</v>
+      </c>
+      <c r="V100" s="1">
+        <v>381</v>
+      </c>
+      <c r="W100" s="1">
+        <v>455</v>
+      </c>
+      <c r="X100" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y100" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z100" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA100" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101">
+        <v>2006</v>
+      </c>
+      <c r="C101" s="1">
+        <v>379</v>
+      </c>
+      <c r="D101" s="1">
+        <v>379</v>
+      </c>
+      <c r="E101" s="1">
+        <v>356</v>
+      </c>
+      <c r="F101" s="1">
+        <v>335</v>
+      </c>
+      <c r="G101" s="1">
+        <v>335</v>
+      </c>
+      <c r="H101" s="1">
+        <v>398</v>
+      </c>
+      <c r="I101" s="1">
+        <v>398</v>
+      </c>
+      <c r="J101" s="1">
+        <v>374</v>
+      </c>
+      <c r="K101" s="1">
+        <v>351</v>
+      </c>
+      <c r="L101" s="1">
+        <v>351</v>
+      </c>
+      <c r="M101" s="1">
+        <v>417</v>
+      </c>
+      <c r="N101" s="1">
+        <v>417</v>
+      </c>
+      <c r="O101" s="1">
+        <v>392</v>
+      </c>
+      <c r="P101" s="1">
+        <v>369</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>373</v>
+      </c>
+      <c r="R101" s="1">
+        <v>431</v>
+      </c>
+      <c r="S101" s="1">
+        <v>426</v>
+      </c>
+      <c r="T101" s="1">
+        <v>405</v>
+      </c>
+      <c r="U101" s="1">
+        <v>380</v>
+      </c>
+      <c r="V101" s="1">
+        <v>381</v>
+      </c>
+      <c r="W101" s="1">
+        <v>455</v>
+      </c>
+      <c r="X101" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y101" s="1">
+        <v>423</v>
+      </c>
+      <c r="Z101" s="1">
+        <v>394</v>
+      </c>
+      <c r="AA101" s="1">
         <v>389</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>